--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_10_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_10_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>370331.1901258903</v>
+        <v>266049.1559692647</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10889207.8339344</v>
+        <v>10889207.83393439</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17544022.27859272</v>
+        <v>17544022.27859271</v>
       </c>
     </row>
     <row r="9">
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>39.70122005611973</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="G11" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="H11" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>153.8072380324128</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>132.5380477013879</v>
       </c>
       <c r="T12" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>13.45644170423119</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1536,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>109.4085843673458</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>18.73857452952512</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>153.807238032413</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>11.36529914368134</v>
+        <v>6.396723986041543</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V14" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X14" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>176.0166538343223</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="16">
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1809,28 +1809,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W16" t="n">
-        <v>94.08088570333381</v>
+        <v>161.8294550022487</v>
       </c>
       <c r="X16" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,76 +1843,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6.396723986041431</v>
+      </c>
+      <c r="S17" t="n">
+        <v>158.7758131900531</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="G17" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="H17" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="I17" t="n">
-        <v>125.4713171199747</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>39.70122005611973</v>
       </c>
     </row>
     <row r="18">
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1934,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>77.7578825286205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>149.7702446909496</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>51.21178417960153</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>91.39039060263897</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>136.4027399669324</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>3.343082173845801</v>
       </c>
       <c r="R19" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="I20" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S20" t="n">
-        <v>39.70122005611973</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T20" t="n">
-        <v>187.5255871663199</v>
+        <v>182.5570120086801</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2162,16 +2162,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>62.42506650037881</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,16 +2216,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W21" t="n">
-        <v>187.5255871663199</v>
+        <v>138.2613113589522</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>88.8154867249885</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>108.9211748018936</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>252.5446815334657</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>252.5446815334657</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>153.6484831749546</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>68.79287231972197</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>222.4413554946766</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>252.5446815334657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2408,10 +2408,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.0434004063341</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>19.43654989674721</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>147.5340725715039</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>194.9243458019727</v>
       </c>
       <c r="U24" t="n">
-        <v>190.4896837646892</v>
+        <v>31.97767300509209</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>16.29800310112374</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2841871185987</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>205.0213201227627</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>223.288426872372</v>
       </c>
       <c r="U25" t="n">
-        <v>239.9366417815887</v>
+        <v>252.5446815334657</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>26.39499297637074</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>222.4413554946765</v>
+        <v>252.5446815334657</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>153.6484831749546</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>68.79287231972197</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>252.5446815334657</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>53.45280175249931</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>19.43654989674721</v>
       </c>
       <c r="S27" t="n">
-        <v>147.5340725715039</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>194.9243458019727</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.8558480838119</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>82.39068794814476</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.3074954471371</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>16.29800310112374</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>205.0213201227627</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>223.288426872372</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>252.5446815334657</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>252.5446815334657</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>222.8483937043143</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>252.5446815334657</v>
+        <v>222.4413554946766</v>
       </c>
       <c r="C29" t="n">
-        <v>252.5446815334657</v>
+        <v>252.5446815334656</v>
       </c>
       <c r="D29" t="n">
-        <v>252.5446815334657</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>252.5446815334656</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>222.4413554946766</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>252.5446815334656</v>
       </c>
     </row>
     <row r="30">
@@ -2882,16 +2882,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>131.4048387756576</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.0434004063341</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>99.67905345297832</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>44.63384100281499</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>19.43654989674721</v>
       </c>
       <c r="S30" t="n">
-        <v>147.5340725715039</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>194.9243458019727</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.8558480838119</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>44.514446600692</v>
       </c>
     </row>
     <row r="31">
@@ -2967,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>35.10851180932325</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>122.6719776188571</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>16.29800310112374</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>128.2841871185987</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>223.288426872372</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>252.5446815334656</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>235.806645264284</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>252.5446815334657</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>252.5446815334657</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>252.5446815334657</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>153.6484831749546</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1512600647031</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>252.5446815334657</v>
+        <v>222.4413554946766</v>
       </c>
       <c r="W32" t="n">
-        <v>252.5446815334657</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>70.18629378848453</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>17.50958156613035</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>99.67905345297832</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3161,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>109.9632838810546</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8558480838119</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>146.3659807608413</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3204,10 +3204,10 @@
         <v>166.9010051432459</v>
       </c>
       <c r="H34" t="n">
-        <v>152.5363108485471</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>122.6719776188571</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>16.29800310112374</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>252.5446815334657</v>
       </c>
       <c r="V34" t="n">
-        <v>62.56627161517164</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>252.5446815334657</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>252.5446815334658</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>252.5446815334658</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>252.5446815334658</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>108.8786376742643</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>153.6484831749546</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.4589161789235</v>
       </c>
       <c r="U35" t="n">
-        <v>222.4413554946767</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>252.5446815334658</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>252.5446815334658</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3350,22 +3350,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.0434004063341</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>99.67905345297832</v>
       </c>
       <c r="I36" t="n">
-        <v>44.63384100281499</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>19.43654989674721</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>194.9243458019727</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8558480838119</v>
+        <v>23.06205476467134</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>30.1657948961295</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>100.1764160854574</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9010051432459</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>152.5363108485471</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>122.6719776188571</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>39.38392767451212</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>223.288426872372</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>252.5446815334658</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>252.5446815334658</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>252.5446815334656</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>252.5446815334657</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>11.37586078451573</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.982439315753039</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>212.4589161789235</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1512600647031</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>252.5446815334657</v>
       </c>
       <c r="W38" t="n">
-        <v>252.5446815334656</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>252.5446815334656</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>44.51444660069222</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>74.79963589894382</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>19.43654989674721</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>194.9243458019727</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.8558480838119</v>
@@ -3647,7 +3647,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>122.6719776188571</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>16.29800310112374</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>14.82994282356104</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>205.0213201227627</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>223.288426872372</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>252.5446815334656</v>
+        <v>252.5446815334657</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>252.5446815334657</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>222.8483937043143</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,26 +3739,26 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>108.8786376742642</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>252.5446815334657</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="H41" t="n">
         <v>252.5446815334657</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>153.6484831749546</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.4589161789235</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>222.4413554946766</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>252.5446815334657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3830,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.0434004063341</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>75.05192470726443</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.8558480838119</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>63.95099649743932</v>
       </c>
     </row>
     <row r="43">
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.9010051432459</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>152.5363108485471</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>26.39499297637083</v>
+        <v>205.0213201227627</v>
       </c>
       <c r="T43" t="n">
         <v>223.288426872372</v>
       </c>
       <c r="U43" t="n">
-        <v>252.5446815334657</v>
+        <v>232.3283371081459</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>252.5446815334656</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>222.4413554946766</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>252.5446815334656</v>
       </c>
       <c r="F44" t="n">
-        <v>252.5446815334656</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>105.6445919855449</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>116.7967635091317</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4055,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>81.9329709114697</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>82.05386717765545</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>19.43654989674721</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>147.5340725715039</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>194.9243458019727</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>40.84097251369372</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>122.6719776188571</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>205.0213201227627</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>223.288426872372</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>92.66382133181038</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>750.1023486652795</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="C11" t="n">
-        <v>750.1023486652795</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="D11" t="n">
-        <v>750.1023486652795</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="E11" t="n">
-        <v>710.0001061843504</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="F11" t="n">
-        <v>520.5803211678657</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="G11" t="n">
-        <v>331.1605361513809</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H11" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I11" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J11" t="n">
         <v>21.03371160678489</v>
       </c>
       <c r="K11" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L11" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M11" t="n">
         <v>347.1218190644754</v>
       </c>
       <c r="N11" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O11" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P11" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q11" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R11" t="n">
-        <v>750.1023486652795</v>
+        <v>738.6222485201457</v>
       </c>
       <c r="S11" t="n">
-        <v>750.1023486652795</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="T11" t="n">
-        <v>750.1023486652795</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="U11" t="n">
-        <v>750.1023486652795</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="V11" t="n">
-        <v>750.1023486652795</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="W11" t="n">
-        <v>750.1023486652795</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="X11" t="n">
-        <v>750.1023486652795</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="Y11" t="n">
-        <v>750.1023486652795</v>
+        <v>393.8416170062745</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>189.4550762544326</v>
+        <v>448.0101957852227</v>
       </c>
       <c r="C12" t="n">
-        <v>15.00204697330559</v>
+        <v>448.0101957852227</v>
       </c>
       <c r="D12" t="n">
-        <v>15.00204697330559</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="E12" t="n">
-        <v>15.00204697330559</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F12" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508564</v>
       </c>
       <c r="G12" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H12" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I12" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J12" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K12" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L12" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M12" t="n">
-        <v>338.7690911140243</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N12" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546593</v>
       </c>
       <c r="O12" t="n">
-        <v>649.2101578476346</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P12" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q12" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R12" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S12" t="n">
-        <v>750.1023486652795</v>
+        <v>616.2255328052908</v>
       </c>
       <c r="T12" t="n">
-        <v>560.6825636487947</v>
+        <v>616.2255328052908</v>
       </c>
       <c r="U12" t="n">
-        <v>560.6825636487947</v>
+        <v>616.2255328052908</v>
       </c>
       <c r="V12" t="n">
-        <v>560.6825636487947</v>
+        <v>616.2255328052908</v>
       </c>
       <c r="W12" t="n">
-        <v>560.6825636487947</v>
+        <v>616.2255328052908</v>
       </c>
       <c r="X12" t="n">
-        <v>547.0901982909854</v>
+        <v>616.2255328052908</v>
       </c>
       <c r="Y12" t="n">
-        <v>357.6704132745007</v>
+        <v>616.2255328052908</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>746.7254979846272</v>
+        <v>162.9151405556987</v>
       </c>
       <c r="C13" t="n">
-        <v>746.7254979846272</v>
+        <v>162.9151405556987</v>
       </c>
       <c r="D13" t="n">
-        <v>746.7254979846272</v>
+        <v>162.9151405556987</v>
       </c>
       <c r="E13" t="n">
-        <v>636.2117764014496</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F13" t="n">
-        <v>489.3218289035392</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G13" t="n">
-        <v>320.6330054664542</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H13" t="n">
-        <v>165.6494995757273</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I13" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J13" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K13" t="n">
-        <v>15.00204697330559</v>
+        <v>106.7151088594233</v>
       </c>
       <c r="L13" t="n">
-        <v>187.8896250884407</v>
+        <v>279.6026869745582</v>
       </c>
       <c r="M13" t="n">
-        <v>373.5399563830973</v>
+        <v>448.2056470819948</v>
       </c>
       <c r="N13" t="n">
-        <v>559.190287677754</v>
+        <v>471.6341805242508</v>
       </c>
       <c r="O13" t="n">
-        <v>721.9284911143042</v>
+        <v>634.3723839608009</v>
       </c>
       <c r="P13" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Q13" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R13" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S13" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T13" t="n">
-        <v>746.7254979846272</v>
+        <v>731.1744956051522</v>
       </c>
       <c r="U13" t="n">
-        <v>746.7254979846272</v>
+        <v>541.7547105886676</v>
       </c>
       <c r="V13" t="n">
-        <v>746.7254979846272</v>
+        <v>352.3349255721832</v>
       </c>
       <c r="W13" t="n">
-        <v>746.7254979846272</v>
+        <v>162.9151405556987</v>
       </c>
       <c r="X13" t="n">
-        <v>746.7254979846272</v>
+        <v>162.9151405556987</v>
       </c>
       <c r="Y13" t="n">
-        <v>746.7254979846272</v>
+        <v>162.9151405556987</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>359.7826784871772</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C14" t="n">
-        <v>204.4218319897903</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D14" t="n">
-        <v>204.4218319897903</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E14" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F14" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G14" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H14" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I14" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J14" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K14" t="n">
         <v>80.81213159058939</v>
@@ -5287,43 +5287,43 @@
         <v>191.8743094079184</v>
       </c>
       <c r="M14" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N14" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O14" t="n">
         <v>649.4845259985582</v>
       </c>
       <c r="P14" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q14" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R14" t="n">
-        <v>738.6222485201467</v>
+        <v>743.6410113056419</v>
       </c>
       <c r="S14" t="n">
-        <v>738.6222485201467</v>
+        <v>583.26140202276</v>
       </c>
       <c r="T14" t="n">
-        <v>738.6222485201467</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="U14" t="n">
-        <v>738.6222485201467</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="V14" t="n">
-        <v>549.202463503662</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="W14" t="n">
-        <v>549.202463503662</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X14" t="n">
-        <v>359.7826784871772</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.7826784871772</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="C15" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D15" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E15" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F15" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G15" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H15" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I15" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J15" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K15" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L15" t="n">
-        <v>183.5548280772649</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M15" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N15" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O15" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P15" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q15" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R15" t="n">
-        <v>722.9192922843275</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S15" t="n">
-        <v>571.6362168389238</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T15" t="n">
-        <v>382.2164318224391</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U15" t="n">
-        <v>192.7966468059543</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V15" t="n">
-        <v>15.00204697330559</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W15" t="n">
-        <v>15.00204697330559</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X15" t="n">
-        <v>15.00204697330559</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158253</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>465.6513659686595</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C16" t="n">
-        <v>465.6513659686595</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D16" t="n">
-        <v>465.6513659686595</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E16" t="n">
-        <v>465.6513659686595</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F16" t="n">
-        <v>465.6513659686595</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G16" t="n">
-        <v>296.9625425315745</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H16" t="n">
-        <v>141.9790366408477</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I16" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J16" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K16" t="n">
         <v>106.7151088594234</v>
       </c>
       <c r="L16" t="n">
-        <v>262.5553157873387</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M16" t="n">
-        <v>448.2056470819953</v>
+        <v>465.2530182692152</v>
       </c>
       <c r="N16" t="n">
-        <v>471.6341805242515</v>
+        <v>650.903349563872</v>
       </c>
       <c r="O16" t="n">
-        <v>634.3723839608017</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="P16" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Q16" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="R16" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="S16" t="n">
-        <v>750.1023486652795</v>
+        <v>557.3057129681426</v>
       </c>
       <c r="T16" t="n">
-        <v>750.1023486652795</v>
+        <v>367.8859279516578</v>
       </c>
       <c r="U16" t="n">
-        <v>750.1023486652795</v>
+        <v>367.8859279516578</v>
       </c>
       <c r="V16" t="n">
-        <v>750.1023486652795</v>
+        <v>178.466142935173</v>
       </c>
       <c r="W16" t="n">
-        <v>655.0711509851443</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X16" t="n">
-        <v>465.6513659686595</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y16" t="n">
-        <v>465.6513659686595</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>710.0001061843504</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="C17" t="n">
-        <v>710.0001061843504</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="D17" t="n">
-        <v>710.0001061843504</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E17" t="n">
-        <v>710.0001061843504</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F17" t="n">
-        <v>520.5803211678657</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G17" t="n">
-        <v>331.1605361513809</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H17" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I17" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J17" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K17" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L17" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M17" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N17" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O17" t="n">
         <v>649.4845259985582</v>
       </c>
       <c r="P17" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q17" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R17" t="n">
-        <v>750.1023486652795</v>
+        <v>743.6410113056418</v>
       </c>
       <c r="S17" t="n">
-        <v>750.1023486652795</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="T17" t="n">
-        <v>750.1023486652795</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="U17" t="n">
-        <v>750.1023486652795</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="V17" t="n">
-        <v>750.1023486652795</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="W17" t="n">
-        <v>750.1023486652795</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="X17" t="n">
-        <v>750.1023486652795</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="Y17" t="n">
-        <v>710.0001061843504</v>
+        <v>393.8416170062751</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>382.2164318224391</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C18" t="n">
-        <v>382.2164318224391</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D18" t="n">
-        <v>382.2164318224391</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E18" t="n">
-        <v>382.2164318224391</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F18" t="n">
-        <v>303.6731161369638</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G18" t="n">
-        <v>166.133934959413</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H18" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I18" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J18" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733055</v>
       </c>
       <c r="K18" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024205</v>
       </c>
       <c r="L18" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M18" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N18" t="n">
-        <v>512.5000587546601</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O18" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P18" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q18" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R18" t="n">
-        <v>722.9192922843275</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S18" t="n">
-        <v>571.6362168389238</v>
+        <v>598.8192732198759</v>
       </c>
       <c r="T18" t="n">
-        <v>382.2164318224391</v>
+        <v>409.3994882033911</v>
       </c>
       <c r="U18" t="n">
-        <v>382.2164318224391</v>
+        <v>409.3994882033911</v>
       </c>
       <c r="V18" t="n">
-        <v>382.2164318224391</v>
+        <v>409.3994882033911</v>
       </c>
       <c r="W18" t="n">
-        <v>382.2164318224391</v>
+        <v>409.3994882033911</v>
       </c>
       <c r="X18" t="n">
-        <v>382.2164318224391</v>
+        <v>357.6704132745007</v>
       </c>
       <c r="Y18" t="n">
-        <v>382.2164318224391</v>
+        <v>357.6704132745007</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>423.1417032603744</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="C19" t="n">
-        <v>254.2055203324674</v>
+        <v>577.7893150567204</v>
       </c>
       <c r="D19" t="n">
-        <v>254.2055203324674</v>
+        <v>427.6726756443846</v>
       </c>
       <c r="E19" t="n">
-        <v>161.891994471216</v>
+        <v>279.7595820619915</v>
       </c>
       <c r="F19" t="n">
-        <v>15.00204697330559</v>
+        <v>279.7595820619915</v>
       </c>
       <c r="G19" t="n">
-        <v>15.00204697330559</v>
+        <v>279.7595820619915</v>
       </c>
       <c r="H19" t="n">
-        <v>15.00204697330559</v>
+        <v>141.9790366408477</v>
       </c>
       <c r="I19" t="n">
         <v>15.00204697330559</v>
@@ -5676,49 +5676,49 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K19" t="n">
-        <v>15.00204697330559</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L19" t="n">
-        <v>187.8896250884407</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M19" t="n">
-        <v>373.5399563830973</v>
+        <v>465.2530182692151</v>
       </c>
       <c r="N19" t="n">
-        <v>559.190287677754</v>
+        <v>650.9033495638718</v>
       </c>
       <c r="O19" t="n">
-        <v>634.3723839608017</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="P19" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Q19" t="n">
-        <v>746.7254979846272</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="R19" t="n">
-        <v>612.5614882768591</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="S19" t="n">
-        <v>612.5614882768591</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="T19" t="n">
-        <v>612.5614882768591</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="U19" t="n">
-        <v>423.1417032603744</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="V19" t="n">
-        <v>423.1417032603744</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="W19" t="n">
-        <v>423.1417032603744</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="X19" t="n">
-        <v>423.1417032603744</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="Y19" t="n">
-        <v>423.1417032603744</v>
+        <v>746.7254979846273</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>331.1605361513809</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="C20" t="n">
-        <v>331.1605361513809</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="D20" t="n">
-        <v>331.1605361513809</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="E20" t="n">
-        <v>331.1605361513809</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="F20" t="n">
-        <v>331.1605361513809</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="G20" t="n">
-        <v>331.1605361513809</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="H20" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I20" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J20" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K20" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058984</v>
       </c>
       <c r="L20" t="n">
-        <v>191.8743094079183</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M20" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N20" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O20" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P20" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q20" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R20" t="n">
-        <v>750.1023486652795</v>
+        <v>738.6222485201473</v>
       </c>
       <c r="S20" t="n">
-        <v>710.0001061843504</v>
+        <v>578.2426392372654</v>
       </c>
       <c r="T20" t="n">
-        <v>520.5803211678657</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="U20" t="n">
-        <v>520.5803211678657</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="V20" t="n">
-        <v>520.5803211678657</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="W20" t="n">
-        <v>520.5803211678657</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="X20" t="n">
-        <v>520.5803211678657</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="Y20" t="n">
-        <v>520.5803211678657</v>
+        <v>393.8416170062753</v>
       </c>
     </row>
     <row r="21">
@@ -5807,34 +5807,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>560.6825636487947</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C21" t="n">
-        <v>386.2295343676677</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D21" t="n">
-        <v>237.2951247064165</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E21" t="n">
-        <v>78.05766970096096</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F21" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G21" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H21" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I21" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J21" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K21" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024215</v>
       </c>
       <c r="L21" t="n">
         <v>183.5548280772649</v>
@@ -5849,34 +5849,34 @@
         <v>649.2101578476348</v>
       </c>
       <c r="P21" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q21" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R21" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="S21" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="T21" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="U21" t="n">
-        <v>750.1023486652795</v>
+        <v>533.4995072678432</v>
       </c>
       <c r="V21" t="n">
-        <v>750.1023486652795</v>
+        <v>344.0797222513584</v>
       </c>
       <c r="W21" t="n">
-        <v>560.6825636487947</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="X21" t="n">
-        <v>560.6825636487947</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y21" t="n">
-        <v>560.6825636487947</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>568.4538838350397</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="C22" t="n">
-        <v>399.5177009071328</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="D22" t="n">
-        <v>309.8050880536091</v>
+        <v>596.608858572292</v>
       </c>
       <c r="E22" t="n">
-        <v>161.891994471216</v>
+        <v>448.6957649898989</v>
       </c>
       <c r="F22" t="n">
-        <v>15.00204697330559</v>
+        <v>448.6957649898989</v>
       </c>
       <c r="G22" t="n">
-        <v>15.00204697330559</v>
+        <v>280.0069415528138</v>
       </c>
       <c r="H22" t="n">
-        <v>15.00204697330559</v>
+        <v>125.023435662087</v>
       </c>
       <c r="I22" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J22" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K22" t="n">
-        <v>15.00204697330559</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L22" t="n">
-        <v>100.3335179349382</v>
+        <v>118.7527324484195</v>
       </c>
       <c r="M22" t="n">
-        <v>285.9838492295949</v>
+        <v>285.9838492295953</v>
       </c>
       <c r="N22" t="n">
-        <v>471.6341805242515</v>
+        <v>471.6341805242521</v>
       </c>
       <c r="O22" t="n">
-        <v>634.3723839608017</v>
+        <v>634.3723839608023</v>
       </c>
       <c r="P22" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q22" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="R22" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="S22" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="T22" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="U22" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="V22" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="W22" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="X22" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="Y22" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846277</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>530.3948503478605</v>
+      </c>
+      <c r="C23" t="n">
         <v>275.2992124352689</v>
-      </c>
-      <c r="C23" t="n">
-        <v>20.20357452267726</v>
       </c>
       <c r="D23" t="n">
         <v>20.20357452267726</v>
@@ -5989,22 +5989,22 @@
         <v>20.20357452267726</v>
       </c>
       <c r="J23" t="n">
-        <v>45.14139246873049</v>
+        <v>45.14139246873057</v>
       </c>
       <c r="K23" t="n">
         <v>133.255235353424</v>
       </c>
       <c r="L23" t="n">
-        <v>279.4700108687928</v>
+        <v>279.4700108687929</v>
       </c>
       <c r="M23" t="n">
-        <v>473.8315586448684</v>
+        <v>473.8315586448686</v>
       </c>
       <c r="N23" t="n">
-        <v>675.9518878415362</v>
+        <v>675.9518878415363</v>
       </c>
       <c r="O23" t="n">
-        <v>853.4731219967458</v>
+        <v>853.4731219967457</v>
       </c>
       <c r="P23" t="n">
         <v>970.4823873903556</v>
@@ -6016,16 +6016,16 @@
         <v>1010.178726133863</v>
       </c>
       <c r="S23" t="n">
-        <v>854.9782380783531</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="T23" t="n">
-        <v>785.4904882604521</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="U23" t="n">
-        <v>785.4904882604521</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="V23" t="n">
-        <v>785.4904882604521</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="W23" t="n">
         <v>785.4904882604521</v>
@@ -6034,7 +6034,7 @@
         <v>785.4904882604521</v>
       </c>
       <c r="Y23" t="n">
-        <v>530.3948503478605</v>
+        <v>785.4904882604521</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>328.375439189384</v>
+        <v>612.3275733305134</v>
       </c>
       <c r="C24" t="n">
-        <v>328.375439189384</v>
+        <v>612.3275733305134</v>
       </c>
       <c r="D24" t="n">
-        <v>179.4410295281328</v>
+        <v>463.393163669262</v>
       </c>
       <c r="E24" t="n">
-        <v>20.20357452267726</v>
+        <v>304.1557086638065</v>
       </c>
       <c r="F24" t="n">
-        <v>20.20357452267726</v>
+        <v>157.6211506906915</v>
       </c>
       <c r="G24" t="n">
         <v>20.20357452267726</v>
@@ -6068,22 +6068,22 @@
         <v>20.20357452267726</v>
       </c>
       <c r="J24" t="n">
-        <v>20.20357452267726</v>
+        <v>102.4273504550116</v>
       </c>
       <c r="K24" t="n">
-        <v>91.58149139220328</v>
+        <v>173.8052673245376</v>
       </c>
       <c r="L24" t="n">
-        <v>233.8804503604842</v>
+        <v>316.1042262928186</v>
       </c>
       <c r="M24" t="n">
-        <v>419.2934918404492</v>
+        <v>501.5172677727835</v>
       </c>
       <c r="N24" t="n">
-        <v>624.0225097304123</v>
+        <v>706.2462856627466</v>
       </c>
       <c r="O24" t="n">
-        <v>789.0897688408452</v>
+        <v>871.3135447731795</v>
       </c>
       <c r="P24" t="n">
         <v>984.4615065526496</v>
@@ -6092,28 +6092,28 @@
         <v>1010.178726133863</v>
       </c>
       <c r="R24" t="n">
-        <v>1010.178726133863</v>
+        <v>990.5458474502798</v>
       </c>
       <c r="S24" t="n">
-        <v>1010.178726133863</v>
+        <v>841.5215317214879</v>
       </c>
       <c r="T24" t="n">
-        <v>1010.178726133863</v>
+        <v>644.6282531336367</v>
       </c>
       <c r="U24" t="n">
-        <v>817.7649041493282</v>
+        <v>612.3275733305134</v>
       </c>
       <c r="V24" t="n">
-        <v>582.6127959175856</v>
+        <v>612.3275733305134</v>
       </c>
       <c r="W24" t="n">
-        <v>328.375439189384</v>
+        <v>612.3275733305134</v>
       </c>
       <c r="X24" t="n">
-        <v>328.375439189384</v>
+        <v>612.3275733305134</v>
       </c>
       <c r="Y24" t="n">
-        <v>328.375439189384</v>
+        <v>612.3275733305134</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>205.6023868456587</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="C25" t="n">
-        <v>36.66620391775174</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="D25" t="n">
-        <v>36.66620391775174</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="E25" t="n">
-        <v>36.66620391775174</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="F25" t="n">
-        <v>36.66620391775174</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="G25" t="n">
-        <v>36.66620391775174</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="H25" t="n">
-        <v>36.66620391775174</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="I25" t="n">
-        <v>36.66620391775174</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="J25" t="n">
         <v>20.20357452267726</v>
@@ -6165,34 +6165,34 @@
         <v>905.2867712809323</v>
       </c>
       <c r="P25" t="n">
-        <v>1005.12137648611</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="Q25" t="n">
         <v>1010.178726133863</v>
       </c>
       <c r="R25" t="n">
-        <v>880.5987391453793</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="S25" t="n">
-        <v>673.5064965971342</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="T25" t="n">
-        <v>447.9626310694857</v>
+        <v>784.6348606062143</v>
       </c>
       <c r="U25" t="n">
-        <v>205.6023868456587</v>
+        <v>529.5392226936226</v>
       </c>
       <c r="V25" t="n">
-        <v>205.6023868456587</v>
+        <v>274.8547344877358</v>
       </c>
       <c r="W25" t="n">
-        <v>205.6023868456587</v>
+        <v>248.1931254206946</v>
       </c>
       <c r="X25" t="n">
-        <v>205.6023868456587</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="Y25" t="n">
-        <v>205.6023868456587</v>
+        <v>20.20357452267726</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>499.9874503086795</v>
+        <v>530.3948503478605</v>
       </c>
       <c r="C26" t="n">
-        <v>499.9874503086795</v>
+        <v>530.3948503478605</v>
       </c>
       <c r="D26" t="n">
         <v>275.2992124352689</v>
@@ -6226,7 +6226,7 @@
         <v>20.20357452267726</v>
       </c>
       <c r="J26" t="n">
-        <v>45.14139246873049</v>
+        <v>45.14139246873056</v>
       </c>
       <c r="K26" t="n">
         <v>133.255235353424</v>
@@ -6235,16 +6235,16 @@
         <v>279.4700108687928</v>
       </c>
       <c r="M26" t="n">
-        <v>473.8315586448684</v>
+        <v>473.8315586448686</v>
       </c>
       <c r="N26" t="n">
-        <v>675.9518878415362</v>
+        <v>675.9518878415363</v>
       </c>
       <c r="O26" t="n">
-        <v>853.4731219967457</v>
+        <v>853.4731219967459</v>
       </c>
       <c r="P26" t="n">
-        <v>970.4823873903556</v>
+        <v>970.4823873903557</v>
       </c>
       <c r="Q26" t="n">
         <v>1010.178726133863</v>
@@ -6253,25 +6253,25 @@
         <v>1010.178726133863</v>
       </c>
       <c r="S26" t="n">
-        <v>1010.178726133863</v>
+        <v>854.9782380783531</v>
       </c>
       <c r="T26" t="n">
-        <v>1010.178726133863</v>
+        <v>785.4904882604521</v>
       </c>
       <c r="U26" t="n">
-        <v>1010.178726133863</v>
+        <v>785.4904882604521</v>
       </c>
       <c r="V26" t="n">
-        <v>755.0830882212712</v>
+        <v>530.3948503478605</v>
       </c>
       <c r="W26" t="n">
-        <v>755.0830882212712</v>
+        <v>530.3948503478605</v>
       </c>
       <c r="X26" t="n">
-        <v>499.9874503086795</v>
+        <v>530.3948503478605</v>
       </c>
       <c r="Y26" t="n">
-        <v>499.9874503086795</v>
+        <v>530.3948503478605</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.6566038038043</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="C27" t="n">
         <v>20.20357452267726</v>
@@ -6305,7 +6305,7 @@
         <v>20.20357452267726</v>
       </c>
       <c r="J27" t="n">
-        <v>20.20357452267726</v>
+        <v>102.4273504550116</v>
       </c>
       <c r="K27" t="n">
         <v>173.8052673245376</v>
@@ -6329,28 +6329,28 @@
         <v>1010.178726133863</v>
       </c>
       <c r="R27" t="n">
-        <v>1010.178726133863</v>
+        <v>990.5458474502798</v>
       </c>
       <c r="S27" t="n">
-        <v>861.154410405071</v>
+        <v>990.5458474502798</v>
       </c>
       <c r="T27" t="n">
-        <v>664.2611318172196</v>
+        <v>793.6525688624286</v>
       </c>
       <c r="U27" t="n">
-        <v>664.2611318172196</v>
+        <v>565.5153485757498</v>
       </c>
       <c r="V27" t="n">
-        <v>664.2611318172196</v>
+        <v>482.2924314564117</v>
       </c>
       <c r="W27" t="n">
-        <v>664.2611318172196</v>
+        <v>228.0550747282101</v>
       </c>
       <c r="X27" t="n">
-        <v>456.4096316116868</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="Y27" t="n">
-        <v>248.6493328467329</v>
+        <v>20.20357452267726</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>322.4469801453774</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="C28" t="n">
-        <v>322.4469801453774</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="D28" t="n">
-        <v>172.3303407330417</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="E28" t="n">
-        <v>172.3303407330417</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="F28" t="n">
-        <v>172.3303407330417</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="G28" t="n">
-        <v>172.3303407330417</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="H28" t="n">
-        <v>36.66620391775174</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="I28" t="n">
-        <v>36.66620391775174</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="J28" t="n">
         <v>20.20357452267726</v>
@@ -6396,13 +6396,13 @@
         <v>519.6065484253286</v>
       </c>
       <c r="N28" t="n">
-        <v>700.4449016630736</v>
+        <v>728.4252227628673</v>
       </c>
       <c r="O28" t="n">
-        <v>877.3064501811384</v>
+        <v>905.2867712809323</v>
       </c>
       <c r="P28" t="n">
-        <v>1005.12137648611</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="Q28" t="n">
         <v>1010.178726133863</v>
@@ -6411,25 +6411,25 @@
         <v>1010.178726133863</v>
       </c>
       <c r="S28" t="n">
-        <v>803.0864835856175</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="T28" t="n">
-        <v>577.5426180579691</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="U28" t="n">
-        <v>322.4469801453774</v>
+        <v>755.0830882212712</v>
       </c>
       <c r="V28" t="n">
-        <v>322.4469801453774</v>
+        <v>500.3986000153843</v>
       </c>
       <c r="W28" t="n">
-        <v>322.4469801453774</v>
+        <v>245.3029621027927</v>
       </c>
       <c r="X28" t="n">
-        <v>322.4469801453774</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="Y28" t="n">
-        <v>322.4469801453774</v>
+        <v>20.20357452267726</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>530.3948503478605</v>
+        <v>530.3948503478604</v>
       </c>
       <c r="C29" t="n">
-        <v>275.2992124352689</v>
+        <v>275.2992124352688</v>
       </c>
       <c r="D29" t="n">
-        <v>20.20357452267726</v>
+        <v>275.2992124352688</v>
       </c>
       <c r="E29" t="n">
-        <v>20.20357452267726</v>
+        <v>275.2992124352688</v>
       </c>
       <c r="F29" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="G29" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="H29" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="I29" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="J29" t="n">
-        <v>45.14139246873056</v>
+        <v>45.14139246873057</v>
       </c>
       <c r="K29" t="n">
         <v>133.255235353424</v>
@@ -6472,16 +6472,16 @@
         <v>279.4700108687928</v>
       </c>
       <c r="M29" t="n">
-        <v>473.8315586448686</v>
+        <v>473.8315586448683</v>
       </c>
       <c r="N29" t="n">
-        <v>675.9518878415362</v>
+        <v>675.9518878415361</v>
       </c>
       <c r="O29" t="n">
         <v>853.4731219967458</v>
       </c>
       <c r="P29" t="n">
-        <v>970.4823873903556</v>
+        <v>970.4823873903554</v>
       </c>
       <c r="Q29" t="n">
         <v>1010.178726133863</v>
@@ -6496,19 +6496,19 @@
         <v>1010.178726133863</v>
       </c>
       <c r="U29" t="n">
-        <v>785.4904882604521</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="V29" t="n">
-        <v>785.4904882604521</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="W29" t="n">
-        <v>785.4904882604521</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="X29" t="n">
-        <v>785.4904882604521</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="Y29" t="n">
-        <v>785.4904882604521</v>
+        <v>755.0830882212711</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>436.1239115305409</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1239115305409</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="D30" t="n">
-        <v>436.1239115305409</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="E30" t="n">
-        <v>436.1239115305409</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="F30" t="n">
-        <v>303.3917511510888</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="G30" t="n">
-        <v>165.9741749830746</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="H30" t="n">
-        <v>65.28826240430857</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="I30" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="J30" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="K30" t="n">
-        <v>173.8052673245376</v>
+        <v>173.8052673245374</v>
       </c>
       <c r="L30" t="n">
-        <v>316.1042262928186</v>
+        <v>316.1042262928183</v>
       </c>
       <c r="M30" t="n">
-        <v>501.5172677727835</v>
+        <v>501.5172677727833</v>
       </c>
       <c r="N30" t="n">
-        <v>706.2462856627466</v>
+        <v>706.2462856627463</v>
       </c>
       <c r="O30" t="n">
-        <v>871.3135447731795</v>
+        <v>871.3135447731793</v>
       </c>
       <c r="P30" t="n">
-        <v>984.4615065526496</v>
+        <v>984.4615065526493</v>
       </c>
       <c r="Q30" t="n">
         <v>1010.178726133863</v>
       </c>
       <c r="R30" t="n">
-        <v>1010.178726133863</v>
+        <v>990.5458474502796</v>
       </c>
       <c r="S30" t="n">
-        <v>861.154410405071</v>
+        <v>990.5458474502796</v>
       </c>
       <c r="T30" t="n">
-        <v>664.2611318172196</v>
+        <v>990.5458474502796</v>
       </c>
       <c r="U30" t="n">
-        <v>436.1239115305409</v>
+        <v>762.4086271636008</v>
       </c>
       <c r="V30" t="n">
-        <v>436.1239115305409</v>
+        <v>527.2565189318582</v>
       </c>
       <c r="W30" t="n">
-        <v>436.1239115305409</v>
+        <v>273.0191622036565</v>
       </c>
       <c r="X30" t="n">
-        <v>436.1239115305409</v>
+        <v>65.16766199812372</v>
       </c>
       <c r="Y30" t="n">
-        <v>436.1239115305409</v>
+        <v>20.20357452267725</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.5778062683139</v>
+        <v>36.66620391775174</v>
       </c>
       <c r="C31" t="n">
-        <v>179.5778062683139</v>
+        <v>36.66620391775174</v>
       </c>
       <c r="D31" t="n">
-        <v>179.5778062683139</v>
+        <v>36.66620391775174</v>
       </c>
       <c r="E31" t="n">
-        <v>179.5778062683139</v>
+        <v>36.66620391775174</v>
       </c>
       <c r="F31" t="n">
-        <v>179.5778062683139</v>
+        <v>36.66620391775174</v>
       </c>
       <c r="G31" t="n">
-        <v>179.5778062683139</v>
+        <v>36.66620391775174</v>
       </c>
       <c r="H31" t="n">
-        <v>144.1146630265733</v>
+        <v>36.66620391775174</v>
       </c>
       <c r="I31" t="n">
-        <v>20.20357452267726</v>
+        <v>36.66620391775174</v>
       </c>
       <c r="J31" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="K31" t="n">
-        <v>95.54529074904227</v>
+        <v>100.6026403967952</v>
       </c>
       <c r="L31" t="n">
-        <v>283.2883605970749</v>
+        <v>288.3457102448279</v>
       </c>
       <c r="M31" t="n">
-        <v>491.6262273255348</v>
+        <v>496.6835769732878</v>
       </c>
       <c r="N31" t="n">
-        <v>700.4449016630736</v>
+        <v>705.5022513108265</v>
       </c>
       <c r="O31" t="n">
-        <v>877.3064501811384</v>
+        <v>882.3637998288914</v>
       </c>
       <c r="P31" t="n">
-        <v>1005.12137648611</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="Q31" t="n">
         <v>1010.178726133863</v>
       </c>
       <c r="R31" t="n">
-        <v>880.5987391453793</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="S31" t="n">
-        <v>880.5987391453793</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="T31" t="n">
-        <v>655.0548736177309</v>
+        <v>784.634860606214</v>
       </c>
       <c r="U31" t="n">
-        <v>655.0548736177309</v>
+        <v>529.5392226936225</v>
       </c>
       <c r="V31" t="n">
-        <v>400.370385411844</v>
+        <v>274.8547344877356</v>
       </c>
       <c r="W31" t="n">
-        <v>400.370385411844</v>
+        <v>36.66620391775174</v>
       </c>
       <c r="X31" t="n">
-        <v>400.370385411844</v>
+        <v>36.66620391775174</v>
       </c>
       <c r="Y31" t="n">
-        <v>179.5778062683139</v>
+        <v>36.66620391775174</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>20.20357452267726</v>
+        <v>785.4904882604521</v>
       </c>
       <c r="C32" t="n">
-        <v>20.20357452267726</v>
+        <v>785.4904882604521</v>
       </c>
       <c r="D32" t="n">
-        <v>20.20357452267726</v>
+        <v>785.4904882604521</v>
       </c>
       <c r="E32" t="n">
-        <v>20.20357452267726</v>
+        <v>530.3948503478605</v>
       </c>
       <c r="F32" t="n">
-        <v>20.20357452267726</v>
+        <v>275.2992124352689</v>
       </c>
       <c r="G32" t="n">
-        <v>20.20357452267726</v>
+        <v>275.2992124352689</v>
       </c>
       <c r="H32" t="n">
         <v>20.20357452267726</v>
@@ -6700,7 +6700,7 @@
         <v>20.20357452267726</v>
       </c>
       <c r="J32" t="n">
-        <v>45.14139246873056</v>
+        <v>45.14139246873049</v>
       </c>
       <c r="K32" t="n">
         <v>133.255235353424</v>
@@ -6709,16 +6709,16 @@
         <v>279.4700108687928</v>
       </c>
       <c r="M32" t="n">
-        <v>473.8315586448686</v>
+        <v>473.8315586448684</v>
       </c>
       <c r="N32" t="n">
-        <v>675.9518878415363</v>
+        <v>675.9518878415362</v>
       </c>
       <c r="O32" t="n">
-        <v>853.4731219967459</v>
+        <v>853.4731219967457</v>
       </c>
       <c r="P32" t="n">
-        <v>970.4823873903557</v>
+        <v>970.4823873903556</v>
       </c>
       <c r="Q32" t="n">
         <v>1010.178726133863</v>
@@ -6727,25 +6727,25 @@
         <v>1010.178726133863</v>
       </c>
       <c r="S32" t="n">
-        <v>854.9782380783531</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="T32" t="n">
-        <v>854.9782380783531</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="U32" t="n">
-        <v>601.290096598855</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="V32" t="n">
-        <v>346.1944586862634</v>
+        <v>785.4904882604521</v>
       </c>
       <c r="W32" t="n">
-        <v>91.09882077367175</v>
+        <v>785.4904882604521</v>
       </c>
       <c r="X32" t="n">
-        <v>20.20357452267726</v>
+        <v>785.4904882604521</v>
       </c>
       <c r="Y32" t="n">
-        <v>20.20357452267726</v>
+        <v>785.4904882604521</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.20357452267726</v>
+        <v>313.0289624089646</v>
       </c>
       <c r="C33" t="n">
-        <v>20.20357452267726</v>
+        <v>138.5759331278375</v>
       </c>
       <c r="D33" t="n">
-        <v>20.20357452267726</v>
+        <v>138.5759331278375</v>
       </c>
       <c r="E33" t="n">
-        <v>20.20357452267726</v>
+        <v>120.8894871014433</v>
       </c>
       <c r="F33" t="n">
-        <v>20.20357452267726</v>
+        <v>120.8894871014433</v>
       </c>
       <c r="G33" t="n">
-        <v>20.20357452267726</v>
+        <v>120.8894871014433</v>
       </c>
       <c r="H33" t="n">
         <v>20.20357452267726</v>
@@ -6779,19 +6779,19 @@
         <v>20.20357452267726</v>
       </c>
       <c r="J33" t="n">
-        <v>102.4273504550116</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="K33" t="n">
-        <v>173.8052673245376</v>
+        <v>91.58149139220328</v>
       </c>
       <c r="L33" t="n">
-        <v>316.1042262928186</v>
+        <v>233.8804503604842</v>
       </c>
       <c r="M33" t="n">
-        <v>501.5172677727835</v>
+        <v>419.2934918404492</v>
       </c>
       <c r="N33" t="n">
-        <v>706.2462856627466</v>
+        <v>624.0225097304123</v>
       </c>
       <c r="O33" t="n">
         <v>871.3135447731795</v>
@@ -6809,22 +6809,22 @@
         <v>1010.178726133863</v>
       </c>
       <c r="T33" t="n">
-        <v>899.1047020115855</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="U33" t="n">
-        <v>670.9674817249067</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="V33" t="n">
-        <v>435.815373493164</v>
+        <v>775.0266179021201</v>
       </c>
       <c r="W33" t="n">
-        <v>435.815373493164</v>
+        <v>520.7892611739185</v>
       </c>
       <c r="X33" t="n">
-        <v>227.9638732876312</v>
+        <v>520.7892611739185</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.20357452267726</v>
+        <v>313.0289624089646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>946.9804719771238</v>
+        <v>499.9874503086795</v>
       </c>
       <c r="C34" t="n">
-        <v>778.0442890492169</v>
+        <v>499.9874503086795</v>
       </c>
       <c r="D34" t="n">
-        <v>778.0442890492169</v>
+        <v>499.9874503086795</v>
       </c>
       <c r="E34" t="n">
-        <v>630.1311954668238</v>
+        <v>352.1430252977287</v>
       </c>
       <c r="F34" t="n">
-        <v>483.2412479689134</v>
+        <v>205.2530777998183</v>
       </c>
       <c r="G34" t="n">
-        <v>314.6543740868468</v>
+        <v>36.66620391775174</v>
       </c>
       <c r="H34" t="n">
-        <v>160.5772924216478</v>
+        <v>36.66620391775174</v>
       </c>
       <c r="I34" t="n">
         <v>36.66620391775174</v>
@@ -6861,22 +6861,22 @@
         <v>20.20357452267726</v>
       </c>
       <c r="K34" t="n">
-        <v>100.6026403967955</v>
+        <v>95.54529074904227</v>
       </c>
       <c r="L34" t="n">
-        <v>288.3457102448281</v>
+        <v>283.2883605970749</v>
       </c>
       <c r="M34" t="n">
-        <v>496.683576973288</v>
+        <v>491.6262273255348</v>
       </c>
       <c r="N34" t="n">
-        <v>705.5022513108268</v>
+        <v>700.4449016630736</v>
       </c>
       <c r="O34" t="n">
-        <v>882.3637998288916</v>
+        <v>877.3064501811384</v>
       </c>
       <c r="P34" t="n">
-        <v>1010.178726133863</v>
+        <v>1005.12137648611</v>
       </c>
       <c r="Q34" t="n">
         <v>1010.178726133863</v>
@@ -6891,19 +6891,19 @@
         <v>1010.178726133863</v>
       </c>
       <c r="U34" t="n">
-        <v>1010.178726133863</v>
+        <v>755.0830882212712</v>
       </c>
       <c r="V34" t="n">
-        <v>946.9804719771238</v>
+        <v>755.0830882212712</v>
       </c>
       <c r="W34" t="n">
-        <v>946.9804719771238</v>
+        <v>499.9874503086795</v>
       </c>
       <c r="X34" t="n">
-        <v>946.9804719771238</v>
+        <v>499.9874503086795</v>
       </c>
       <c r="Y34" t="n">
-        <v>946.9804719771238</v>
+        <v>499.9874503086795</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>275.299212435269</v>
+        <v>640.3732722410571</v>
       </c>
       <c r="C35" t="n">
-        <v>275.299212435269</v>
+        <v>385.2776343284653</v>
       </c>
       <c r="D35" t="n">
-        <v>275.299212435269</v>
+        <v>130.1819964158736</v>
       </c>
       <c r="E35" t="n">
-        <v>275.299212435269</v>
+        <v>130.1819964158736</v>
       </c>
       <c r="F35" t="n">
-        <v>20.20357452267726</v>
+        <v>130.1819964158736</v>
       </c>
       <c r="G35" t="n">
-        <v>20.20357452267726</v>
+        <v>130.1819964158736</v>
       </c>
       <c r="H35" t="n">
         <v>20.20357452267726</v>
@@ -6937,13 +6937,13 @@
         <v>20.20357452267726</v>
       </c>
       <c r="J35" t="n">
-        <v>45.14139246873037</v>
+        <v>45.14139246873049</v>
       </c>
       <c r="K35" t="n">
-        <v>133.2552353534243</v>
+        <v>133.2552353534244</v>
       </c>
       <c r="L35" t="n">
-        <v>279.4700108687931</v>
+        <v>279.4700108687932</v>
       </c>
       <c r="M35" t="n">
         <v>473.8315586448688</v>
@@ -6952,7 +6952,7 @@
         <v>675.9518878415365</v>
       </c>
       <c r="O35" t="n">
-        <v>853.4731219967462</v>
+        <v>853.4731219967463</v>
       </c>
       <c r="P35" t="n">
         <v>970.4823873903561</v>
@@ -6964,25 +6964,25 @@
         <v>1010.178726133863</v>
       </c>
       <c r="S35" t="n">
-        <v>1010.178726133863</v>
+        <v>854.9782380783536</v>
       </c>
       <c r="T35" t="n">
-        <v>1010.178726133863</v>
+        <v>640.3732722410571</v>
       </c>
       <c r="U35" t="n">
-        <v>785.4904882604525</v>
+        <v>640.3732722410571</v>
       </c>
       <c r="V35" t="n">
-        <v>530.3948503478607</v>
+        <v>640.3732722410571</v>
       </c>
       <c r="W35" t="n">
-        <v>530.3948503478607</v>
+        <v>640.3732722410571</v>
       </c>
       <c r="X35" t="n">
-        <v>275.299212435269</v>
+        <v>640.3732722410571</v>
       </c>
       <c r="Y35" t="n">
-        <v>275.299212435269</v>
+        <v>640.3732722410571</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>65.28826240430857</v>
+        <v>713.0134859092793</v>
       </c>
       <c r="C36" t="n">
-        <v>65.28826240430857</v>
+        <v>713.0134859092793</v>
       </c>
       <c r="D36" t="n">
-        <v>65.28826240430857</v>
+        <v>564.0790762480281</v>
       </c>
       <c r="E36" t="n">
-        <v>65.28826240430857</v>
+        <v>404.8416212425725</v>
       </c>
       <c r="F36" t="n">
-        <v>65.28826240430857</v>
+        <v>258.3070632694575</v>
       </c>
       <c r="G36" t="n">
-        <v>65.28826240430857</v>
+        <v>120.8894871014433</v>
       </c>
       <c r="H36" t="n">
-        <v>65.28826240430857</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="I36" t="n">
         <v>20.20357452267726</v>
@@ -7040,28 +7040,28 @@
         <v>1010.178726133863</v>
       </c>
       <c r="R36" t="n">
-        <v>1010.178726133863</v>
+        <v>990.5458474502802</v>
       </c>
       <c r="S36" t="n">
-        <v>1010.178726133863</v>
+        <v>990.5458474502802</v>
       </c>
       <c r="T36" t="n">
-        <v>813.2854475460119</v>
+        <v>990.5458474502802</v>
       </c>
       <c r="U36" t="n">
-        <v>585.1482272593332</v>
+        <v>967.2508426374809</v>
       </c>
       <c r="V36" t="n">
-        <v>349.9961190275905</v>
+        <v>967.2508426374809</v>
       </c>
       <c r="W36" t="n">
-        <v>95.75876229938888</v>
+        <v>713.0134859092793</v>
       </c>
       <c r="X36" t="n">
-        <v>65.28826240430857</v>
+        <v>713.0134859092793</v>
       </c>
       <c r="Y36" t="n">
-        <v>65.28826240430857</v>
+        <v>713.0134859092793</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>489.7574775678532</v>
+        <v>245.3029621027929</v>
       </c>
       <c r="C37" t="n">
-        <v>489.7574775678532</v>
+        <v>245.3029621027929</v>
       </c>
       <c r="D37" t="n">
-        <v>489.7574775678532</v>
+        <v>245.3029621027929</v>
       </c>
       <c r="E37" t="n">
-        <v>489.7574775678532</v>
+        <v>245.3029621027929</v>
       </c>
       <c r="F37" t="n">
-        <v>342.8675300699429</v>
+        <v>144.1146630265733</v>
       </c>
       <c r="G37" t="n">
-        <v>174.2806561878763</v>
+        <v>144.1146630265733</v>
       </c>
       <c r="H37" t="n">
-        <v>20.20357452267726</v>
+        <v>144.1146630265733</v>
       </c>
       <c r="I37" t="n">
         <v>20.20357452267726</v>
@@ -7119,28 +7119,28 @@
         <v>1010.178726133863</v>
       </c>
       <c r="R37" t="n">
-        <v>970.3969810080935</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="S37" t="n">
-        <v>970.3969810080935</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="T37" t="n">
-        <v>744.853115480445</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="U37" t="n">
-        <v>489.7574775678532</v>
+        <v>755.0830882212715</v>
       </c>
       <c r="V37" t="n">
-        <v>489.7574775678532</v>
+        <v>500.3986000153847</v>
       </c>
       <c r="W37" t="n">
-        <v>489.7574775678532</v>
+        <v>245.3029621027929</v>
       </c>
       <c r="X37" t="n">
-        <v>489.7574775678532</v>
+        <v>245.3029621027929</v>
       </c>
       <c r="Y37" t="n">
-        <v>489.7574775678532</v>
+        <v>245.3029621027929</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>20.20357452267725</v>
+        <v>286.7899809044767</v>
       </c>
       <c r="C38" t="n">
-        <v>20.20357452267725</v>
+        <v>286.7899809044767</v>
       </c>
       <c r="D38" t="n">
-        <v>20.20357452267725</v>
+        <v>286.7899809044767</v>
       </c>
       <c r="E38" t="n">
-        <v>20.20357452267725</v>
+        <v>286.7899809044767</v>
       </c>
       <c r="F38" t="n">
-        <v>20.20357452267725</v>
+        <v>286.7899809044767</v>
       </c>
       <c r="G38" t="n">
-        <v>20.20357452267725</v>
+        <v>286.7899809044767</v>
       </c>
       <c r="H38" t="n">
-        <v>20.20357452267725</v>
+        <v>31.69434299188507</v>
       </c>
       <c r="I38" t="n">
-        <v>20.20357452267725</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="J38" t="n">
         <v>45.14139246873057</v>
@@ -7183,16 +7183,16 @@
         <v>279.4700108687929</v>
       </c>
       <c r="M38" t="n">
-        <v>473.8315586448683</v>
+        <v>473.8315586448684</v>
       </c>
       <c r="N38" t="n">
-        <v>675.9518878415361</v>
+        <v>675.9518878415362</v>
       </c>
       <c r="O38" t="n">
         <v>853.4731219967457</v>
       </c>
       <c r="P38" t="n">
-        <v>970.4823873903554</v>
+        <v>970.4823873903556</v>
       </c>
       <c r="Q38" t="n">
         <v>1010.178726133863</v>
@@ -7201,25 +7201,25 @@
         <v>1010.178726133863</v>
       </c>
       <c r="S38" t="n">
-        <v>1000.095454097748</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="T38" t="n">
-        <v>785.4904882604519</v>
+        <v>795.5737602965664</v>
       </c>
       <c r="U38" t="n">
-        <v>785.4904882604519</v>
+        <v>541.8856188170683</v>
       </c>
       <c r="V38" t="n">
-        <v>785.4904882604519</v>
+        <v>286.7899809044767</v>
       </c>
       <c r="W38" t="n">
-        <v>530.3948503478604</v>
+        <v>286.7899809044767</v>
       </c>
       <c r="X38" t="n">
-        <v>275.2992124352688</v>
+        <v>286.7899809044767</v>
       </c>
       <c r="Y38" t="n">
-        <v>275.2992124352688</v>
+        <v>286.7899809044767</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>95.7587622993882</v>
+        <v>65.16766199812395</v>
       </c>
       <c r="C39" t="n">
-        <v>95.7587622993882</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="D39" t="n">
-        <v>95.7587622993882</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="E39" t="n">
-        <v>20.20357452267725</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="F39" t="n">
-        <v>20.20357452267725</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="G39" t="n">
-        <v>20.20357452267725</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="H39" t="n">
-        <v>20.20357452267725</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="I39" t="n">
-        <v>20.20357452267725</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="J39" t="n">
-        <v>20.20357452267725</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="K39" t="n">
         <v>91.58149139220328</v>
@@ -7277,28 +7277,28 @@
         <v>1010.178726133863</v>
       </c>
       <c r="R39" t="n">
-        <v>1010.178726133863</v>
+        <v>990.5458474502798</v>
       </c>
       <c r="S39" t="n">
-        <v>1010.178726133863</v>
+        <v>990.5458474502798</v>
       </c>
       <c r="T39" t="n">
-        <v>813.2854475460113</v>
+        <v>990.5458474502798</v>
       </c>
       <c r="U39" t="n">
-        <v>585.1482272593325</v>
+        <v>762.4086271636011</v>
       </c>
       <c r="V39" t="n">
-        <v>349.9961190275898</v>
+        <v>527.2565189318584</v>
       </c>
       <c r="W39" t="n">
-        <v>95.7587622993882</v>
+        <v>273.0191622036568</v>
       </c>
       <c r="X39" t="n">
-        <v>95.7587622993882</v>
+        <v>65.16766199812395</v>
       </c>
       <c r="Y39" t="n">
-        <v>95.7587622993882</v>
+        <v>65.16766199812395</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>307.4672399195581</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="C40" t="n">
-        <v>307.4672399195581</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="D40" t="n">
-        <v>307.4672399195581</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="E40" t="n">
-        <v>307.4672399195581</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="F40" t="n">
-        <v>160.5772924216478</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="G40" t="n">
-        <v>160.5772924216478</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="H40" t="n">
-        <v>160.5772924216478</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="I40" t="n">
-        <v>36.66620391775174</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="J40" t="n">
-        <v>20.20357452267725</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="K40" t="n">
         <v>123.5256118488361</v>
@@ -7356,28 +7356,28 @@
         <v>1010.178726133863</v>
       </c>
       <c r="R40" t="n">
-        <v>995.1989859080434</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="S40" t="n">
-        <v>788.1067433597982</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="T40" t="n">
-        <v>562.5628778321496</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="U40" t="n">
-        <v>307.4672399195581</v>
+        <v>755.0830882212712</v>
       </c>
       <c r="V40" t="n">
-        <v>307.4672399195581</v>
+        <v>500.3986000153843</v>
       </c>
       <c r="W40" t="n">
-        <v>307.4672399195581</v>
+        <v>245.3029621027927</v>
       </c>
       <c r="X40" t="n">
-        <v>307.4672399195581</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="Y40" t="n">
-        <v>307.4672399195581</v>
+        <v>20.20357452267726</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>640.3732722410566</v>
+      </c>
+      <c r="C41" t="n">
+        <v>640.3732722410566</v>
+      </c>
+      <c r="D41" t="n">
+        <v>530.3948503478605</v>
+      </c>
+      <c r="E41" t="n">
+        <v>530.3948503478605</v>
+      </c>
+      <c r="F41" t="n">
+        <v>530.3948503478605</v>
+      </c>
+      <c r="G41" t="n">
         <v>275.2992124352689</v>
-      </c>
-      <c r="C41" t="n">
-        <v>275.2992124352689</v>
-      </c>
-      <c r="D41" t="n">
-        <v>275.2992124352689</v>
-      </c>
-      <c r="E41" t="n">
-        <v>20.20357452267726</v>
-      </c>
-      <c r="F41" t="n">
-        <v>20.20357452267726</v>
-      </c>
-      <c r="G41" t="n">
-        <v>20.20357452267726</v>
       </c>
       <c r="H41" t="n">
         <v>20.20357452267726</v>
@@ -7411,22 +7411,22 @@
         <v>20.20357452267726</v>
       </c>
       <c r="J41" t="n">
-        <v>45.14139246873049</v>
+        <v>45.1413924687306</v>
       </c>
       <c r="K41" t="n">
         <v>133.255235353424</v>
       </c>
       <c r="L41" t="n">
-        <v>279.4700108687928</v>
+        <v>279.4700108687929</v>
       </c>
       <c r="M41" t="n">
-        <v>473.8315586448684</v>
+        <v>473.8315586448686</v>
       </c>
       <c r="N41" t="n">
         <v>675.9518878415362</v>
       </c>
       <c r="O41" t="n">
-        <v>853.4731219967457</v>
+        <v>853.4731219967459</v>
       </c>
       <c r="P41" t="n">
         <v>970.4823873903556</v>
@@ -7438,25 +7438,25 @@
         <v>1010.178726133863</v>
       </c>
       <c r="S41" t="n">
-        <v>1010.178726133863</v>
+        <v>854.9782380783531</v>
       </c>
       <c r="T41" t="n">
-        <v>1010.178726133863</v>
+        <v>640.3732722410566</v>
       </c>
       <c r="U41" t="n">
-        <v>1010.178726133863</v>
+        <v>640.3732722410566</v>
       </c>
       <c r="V41" t="n">
-        <v>785.4904882604521</v>
+        <v>640.3732722410566</v>
       </c>
       <c r="W41" t="n">
-        <v>785.4904882604521</v>
+        <v>640.3732722410566</v>
       </c>
       <c r="X41" t="n">
-        <v>785.4904882604521</v>
+        <v>640.3732722410566</v>
       </c>
       <c r="Y41" t="n">
-        <v>530.3948503478605</v>
+        <v>640.3732722410566</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>304.1557086638065</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="C42" t="n">
-        <v>304.1557086638065</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="D42" t="n">
-        <v>304.1557086638065</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="E42" t="n">
-        <v>304.1557086638065</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="F42" t="n">
-        <v>157.6211506906915</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="G42" t="n">
         <v>20.20357452267726</v>
@@ -7490,25 +7490,25 @@
         <v>20.20357452267726</v>
       </c>
       <c r="J42" t="n">
-        <v>20.20357452267726</v>
+        <v>102.4273504550116</v>
       </c>
       <c r="K42" t="n">
-        <v>91.58149139220328</v>
+        <v>173.8052673245376</v>
       </c>
       <c r="L42" t="n">
-        <v>233.8804503604842</v>
+        <v>316.1042262928186</v>
       </c>
       <c r="M42" t="n">
-        <v>419.2934918404492</v>
+        <v>501.5172677727835</v>
       </c>
       <c r="N42" t="n">
-        <v>624.0225097304123</v>
+        <v>706.2462856627466</v>
       </c>
       <c r="O42" t="n">
-        <v>789.0897688408452</v>
+        <v>871.3135447731795</v>
       </c>
       <c r="P42" t="n">
-        <v>902.2377306203152</v>
+        <v>984.4615065526496</v>
       </c>
       <c r="Q42" t="n">
         <v>1010.178726133863</v>
@@ -7517,25 +7517,25 @@
         <v>1010.178726133863</v>
       </c>
       <c r="S42" t="n">
-        <v>934.3687011770301</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="T42" t="n">
-        <v>934.3687011770301</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="U42" t="n">
-        <v>934.3687011770301</v>
+        <v>782.0415058471841</v>
       </c>
       <c r="V42" t="n">
-        <v>934.3687011770301</v>
+        <v>546.8893976154413</v>
       </c>
       <c r="W42" t="n">
-        <v>680.1313444488285</v>
+        <v>292.6520408872397</v>
       </c>
       <c r="X42" t="n">
-        <v>680.1313444488285</v>
+        <v>84.80054068170688</v>
       </c>
       <c r="Y42" t="n">
-        <v>472.3710456838746</v>
+        <v>20.20357452267726</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>20.20357452267726</v>
+        <v>342.8675300699429</v>
       </c>
       <c r="C43" t="n">
-        <v>20.20357452267726</v>
+        <v>342.8675300699429</v>
       </c>
       <c r="D43" t="n">
-        <v>20.20357452267726</v>
+        <v>342.8675300699429</v>
       </c>
       <c r="E43" t="n">
-        <v>20.20357452267726</v>
+        <v>342.8675300699429</v>
       </c>
       <c r="F43" t="n">
-        <v>20.20357452267726</v>
+        <v>342.8675300699429</v>
       </c>
       <c r="G43" t="n">
-        <v>20.20357452267726</v>
+        <v>174.2806561878763</v>
       </c>
       <c r="H43" t="n">
         <v>20.20357452267726</v>
@@ -7572,22 +7572,22 @@
         <v>20.20357452267726</v>
       </c>
       <c r="K43" t="n">
-        <v>95.54529074904227</v>
+        <v>100.6026403967955</v>
       </c>
       <c r="L43" t="n">
-        <v>283.2883605970749</v>
+        <v>288.3457102448281</v>
       </c>
       <c r="M43" t="n">
-        <v>491.6262273255348</v>
+        <v>496.683576973288</v>
       </c>
       <c r="N43" t="n">
-        <v>700.4449016630736</v>
+        <v>705.5022513108268</v>
       </c>
       <c r="O43" t="n">
-        <v>877.3064501811384</v>
+        <v>882.3637998288916</v>
       </c>
       <c r="P43" t="n">
-        <v>1005.12137648611</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="Q43" t="n">
         <v>1010.178726133863</v>
@@ -7596,25 +7596,25 @@
         <v>1010.178726133863</v>
       </c>
       <c r="S43" t="n">
-        <v>983.5171170668216</v>
+        <v>803.0864835856175</v>
       </c>
       <c r="T43" t="n">
-        <v>757.9732515391731</v>
+        <v>577.5426180579691</v>
       </c>
       <c r="U43" t="n">
-        <v>502.8776136265815</v>
+        <v>342.8675300699429</v>
       </c>
       <c r="V43" t="n">
-        <v>248.1931254206946</v>
+        <v>342.8675300699429</v>
       </c>
       <c r="W43" t="n">
-        <v>248.1931254206946</v>
+        <v>342.8675300699429</v>
       </c>
       <c r="X43" t="n">
-        <v>20.20357452267726</v>
+        <v>342.8675300699429</v>
       </c>
       <c r="Y43" t="n">
-        <v>20.20357452267726</v>
+        <v>342.8675300699429</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>755.0830882212711</v>
+        <v>499.9874503086795</v>
       </c>
       <c r="C44" t="n">
-        <v>755.0830882212711</v>
+        <v>275.2992124352688</v>
       </c>
       <c r="D44" t="n">
-        <v>755.0830882212711</v>
+        <v>275.2992124352688</v>
       </c>
       <c r="E44" t="n">
-        <v>499.9874503086795</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="F44" t="n">
-        <v>244.8918123960879</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="G44" t="n">
-        <v>244.8918123960879</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="H44" t="n">
-        <v>138.18010331978</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="I44" t="n">
         <v>20.20357452267725</v>
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>426.3515901433078</v>
+        <v>436.7767529281036</v>
       </c>
       <c r="C45" t="n">
-        <v>251.8985608621807</v>
+        <v>262.3237236469766</v>
       </c>
       <c r="D45" t="n">
-        <v>102.9641512009295</v>
+        <v>262.3237236469766</v>
       </c>
       <c r="E45" t="n">
-        <v>102.9641512009295</v>
+        <v>103.0862686415211</v>
       </c>
       <c r="F45" t="n">
-        <v>20.20357452267725</v>
+        <v>103.0862686415211</v>
       </c>
       <c r="G45" t="n">
         <v>20.20357452267725</v>
@@ -7727,7 +7727,7 @@
         <v>20.20357452267725</v>
       </c>
       <c r="J45" t="n">
-        <v>20.20357452267725</v>
+        <v>102.4273504550114</v>
       </c>
       <c r="K45" t="n">
         <v>173.8052673245374</v>
@@ -7751,28 +7751,28 @@
         <v>1010.178726133863</v>
       </c>
       <c r="R45" t="n">
-        <v>1010.178726133863</v>
+        <v>990.5458474502796</v>
       </c>
       <c r="S45" t="n">
-        <v>1010.178726133863</v>
+        <v>841.5215317214877</v>
       </c>
       <c r="T45" t="n">
-        <v>1010.178726133863</v>
+        <v>644.6282531336365</v>
       </c>
       <c r="U45" t="n">
-        <v>1010.178726133863</v>
+        <v>644.6282531336365</v>
       </c>
       <c r="V45" t="n">
-        <v>1010.178726133863</v>
+        <v>644.6282531336365</v>
       </c>
       <c r="W45" t="n">
-        <v>1010.178726133863</v>
+        <v>644.6282531336365</v>
       </c>
       <c r="X45" t="n">
-        <v>802.3272259283298</v>
+        <v>436.7767529281036</v>
       </c>
       <c r="Y45" t="n">
-        <v>594.5669271633758</v>
+        <v>436.7767529281036</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>313.0508459544802</v>
+        <v>483.9427985308877</v>
       </c>
       <c r="C46" t="n">
-        <v>144.1146630265733</v>
+        <v>315.0066156029807</v>
       </c>
       <c r="D46" t="n">
-        <v>144.1146630265733</v>
+        <v>315.0066156029807</v>
       </c>
       <c r="E46" t="n">
-        <v>144.1146630265733</v>
+        <v>167.0935220205876</v>
       </c>
       <c r="F46" t="n">
-        <v>144.1146630265733</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="G46" t="n">
-        <v>144.1146630265733</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="H46" t="n">
-        <v>144.1146630265733</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="I46" t="n">
         <v>20.20357452267725</v>
@@ -7809,19 +7809,19 @@
         <v>20.20357452267725</v>
       </c>
       <c r="K46" t="n">
-        <v>123.5256118488361</v>
+        <v>95.54529074904204</v>
       </c>
       <c r="L46" t="n">
-        <v>311.2686816968687</v>
+        <v>283.2883605970747</v>
       </c>
       <c r="M46" t="n">
-        <v>519.6065484253286</v>
+        <v>491.6262273255346</v>
       </c>
       <c r="N46" t="n">
-        <v>728.4252227628673</v>
+        <v>700.4449016630733</v>
       </c>
       <c r="O46" t="n">
-        <v>905.2867712809323</v>
+        <v>877.3064501811382</v>
       </c>
       <c r="P46" t="n">
         <v>1005.121376486109</v>
@@ -7836,22 +7836,22 @@
         <v>803.0864835856173</v>
       </c>
       <c r="T46" t="n">
-        <v>803.0864835856173</v>
+        <v>577.5426180579689</v>
       </c>
       <c r="U46" t="n">
-        <v>803.0864835856173</v>
+        <v>483.9427985308877</v>
       </c>
       <c r="V46" t="n">
-        <v>803.0864835856173</v>
+        <v>483.9427985308877</v>
       </c>
       <c r="W46" t="n">
-        <v>803.0864835856173</v>
+        <v>483.9427985308877</v>
       </c>
       <c r="X46" t="n">
-        <v>575.0969326876</v>
+        <v>483.9427985308877</v>
       </c>
       <c r="Y46" t="n">
-        <v>354.3043535440698</v>
+        <v>483.9427985308877</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8850,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>14.10430989402852</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>171.4142040457083</v>
+        <v>154.1946371899305</v>
       </c>
       <c r="N13" t="n">
-        <v>163.8604018711116</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
-        <v>46.56605103777598</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -9090,19 +9090,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>145.2551346857769</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O16" t="n">
-        <v>163.0416663658825</v>
+        <v>98.86065188594071</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>14.10430989402852</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M19" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N19" t="n">
         <v>163.8604018711116</v>
       </c>
       <c r="O19" t="n">
-        <v>74.60115408961737</v>
+        <v>98.86065188594071</v>
       </c>
       <c r="P19" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9561,16 +9561,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>14.10430989402852</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>74.03418926528931</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>171.4142040457083</v>
+        <v>152.8089368603741</v>
       </c>
       <c r="N22" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>4.00510447422154</v>
+        <v>87.05942359779159</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>83.05431912357008</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9813,10 +9813,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
-        <v>106.7436127081887</v>
+        <v>111.8520466958182</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775146</v>
+        <v>60.23452439012192</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>4.00510447422154</v>
+        <v>87.05942359779159</v>
       </c>
       <c r="K27" t="n">
-        <v>83.05431912357005</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10044,16 +10044,16 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>143.5547662386095</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>111.8520466958182</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>60.23452439012192</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>4.00510447422154</v>
       </c>
       <c r="K30" t="n">
-        <v>83.05431912357005</v>
+        <v>83.05431912356983</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>78.48081573880017</v>
+        <v>83.58924972642944</v>
       </c>
       <c r="L31" t="n">
         <v>162.4747015415544</v>
@@ -10290,7 +10290,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>60.23452439012192</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>87.05942359779159</v>
+        <v>4.00510447422154</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>83.05431912357002</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>83.58924972642967</v>
+        <v>78.48081573880017</v>
       </c>
       <c r="L34" t="n">
         <v>162.4747015415544</v>
@@ -10527,7 +10527,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>60.23452439012192</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>83.0543191235698</v>
+        <v>83.05431912357002</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10998,7 +10998,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>111.852046695818</v>
+        <v>111.8520466958182</v>
       </c>
       <c r="Q40" t="n">
         <v>60.23452439012192</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>4.00510447422154</v>
+        <v>87.05942359779159</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>83.05431912357002</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,7 +11220,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>78.48081573880017</v>
+        <v>83.58924972642967</v>
       </c>
       <c r="L43" t="n">
         <v>162.4747015415544</v>
@@ -11238,7 +11238,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.34295837775146</v>
+        <v>60.23452439012192</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>4.00510447422154</v>
+        <v>87.05942359779137</v>
       </c>
       <c r="K45" t="n">
-        <v>83.05431912356983</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>78.48081573879995</v>
       </c>
       <c r="L46" t="n">
         <v>162.4747015415544</v>
@@ -11472,7 +11472,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>106.7436127081885</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>342.2291500161421</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>219.3504585753916</v>
+        <v>219.3504585753918</v>
       </c>
       <c r="G11" t="n">
-        <v>225.5722460637382</v>
+        <v>225.5722460637384</v>
       </c>
       <c r="H11" t="n">
-        <v>129.3682389399025</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>158.7758131900531</v>
+        <v>4.968575157640373</v>
       </c>
       <c r="T11" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988714</v>
       </c>
       <c r="U11" t="n">
         <v>251.1692605650303</v>
@@ -23339,25 +23339,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I12" t="n">
-        <v>48.77881175550657</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>26.91122581714238</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S12" t="n">
-        <v>149.7702446909496</v>
+        <v>17.23219698956171</v>
       </c>
       <c r="T12" t="n">
-        <v>7.884010625681384</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U12" t="n">
         <v>225.8637684100909</v>
@@ -23402,10 +23402,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>192.3165434992463</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.15710861098449</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>37.02537827922337</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R13" t="n">
         <v>132.8223696106904</v>
@@ -23469,16 +23469,16 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T13" t="n">
-        <v>223.7196734901001</v>
+        <v>204.981098960575</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2650814934503</v>
+        <v>98.73949432713064</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750836</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027136</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,13 +23497,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>211.4656537385945</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>4.968575157639798</v>
       </c>
       <c r="S14" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988683</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871038</v>
       </c>
       <c r="V14" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X14" t="n">
-        <v>182.2055135121492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>7.535961812221217</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T15" t="n">
-        <v>7.884010625681384</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U15" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V15" t="n">
-        <v>56.78393331510301</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715752</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098441</v>
       </c>
     </row>
     <row r="16">
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J16" t="n">
         <v>23.43375830553084</v>
@@ -23697,28 +23697,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S16" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917628</v>
       </c>
       <c r="T16" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378014</v>
       </c>
       <c r="U16" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750805</v>
       </c>
       <c r="W16" t="n">
-        <v>192.4421126332572</v>
+        <v>124.6935433343423</v>
       </c>
       <c r="X16" t="n">
-        <v>38.18406822271729</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>219.3504585753916</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>225.5722460637382</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H17" t="n">
-        <v>129.3682389399025</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>11.36529914368134</v>
+        <v>4.96857515763991</v>
       </c>
       <c r="S17" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>213.4438810562068</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>346.5367185999339</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="18">
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23822,16 +23822,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>67.31132986476338</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>7.884010625681384</v>
+        <v>7.884010625681356</v>
       </c>
       <c r="U18" t="n">
         <v>225.8637684100909</v>
@@ -23876,7 +23876,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>154.561201023876</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>55.0435720439302</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H19" t="n">
-        <v>153.4336708318196</v>
+        <v>17.03093086488718</v>
       </c>
       <c r="I19" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>23.43375830553084</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S19" t="n">
         <v>206.7802557954962</v>
@@ -23946,7 +23946,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U19" t="n">
-        <v>98.73949432713042</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543629</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23986,10 +23986,10 @@
         <v>413.097833230058</v>
       </c>
       <c r="H20" t="n">
-        <v>129.3682389399025</v>
+        <v>129.3682389399023</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.0745931339334</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>25.91829388988691</v>
+        <v>30.88686904752663</v>
       </c>
       <c r="U20" t="n">
         <v>251.1692605650303</v>
@@ -24050,16 +24050,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>82.64414589300506</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.1637893657753</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>149.7702446909496</v>
@@ -24104,16 +24104,16 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377092</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W21" t="n">
-        <v>64.16939599459974</v>
+        <v>113.4336718019674</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715747</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>59.79998629322385</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>125.7072197708667</v>
+        <v>16.7860449689731</v>
       </c>
       <c r="J22" t="n">
         <v>23.43375830553084</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>132.8223696106904</v>
@@ -24211,7 +24211,7 @@
         <v>112.7282102375418</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>102.1383600872173</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>153.6484831749546</v>
       </c>
       <c r="T23" t="n">
-        <v>143.6660438592015</v>
+        <v>212.4589161789235</v>
       </c>
       <c r="U23" t="n">
         <v>251.1512600647031</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>126.7996132227364</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>133.6932571225879</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24296,10 +24296,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.0434004063341</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>99.67905345297832</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>19.43654989674721</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>147.5340725715039</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>194.9243458019727</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>35.36616431912265</v>
+        <v>193.8781750787198</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24387,7 +24387,7 @@
         <v>122.6719776188571</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>16.29800310112374</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>128.2841871185987</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>205.0213201227627</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>46.32293443589055</v>
+        <v>33.71489468401356</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>260.1280053602202</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>132.2416861260064</v>
+        <v>102.1383600872173</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>153.6484831749546</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.4589161789235</v>
+        <v>143.6660438592015</v>
       </c>
       <c r="U26" t="n">
         <v>251.1512600647031</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>117.1864191450033</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>113.080381897368</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>19.43654989674721</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>147.5340725715039</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8558480838119</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>150.4098992012805</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,13 +24618,13 @@
         <v>166.9010051432459</v>
       </c>
       <c r="H28" t="n">
-        <v>18.22881540141</v>
+        <v>152.5363108485471</v>
       </c>
       <c r="I28" t="n">
         <v>122.6719776188571</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>16.29800310112374</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>128.2841871185987</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>205.0213201227627</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>223.288426872372</v>
       </c>
       <c r="U28" t="n">
         <v>33.71489468401356</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>33.9783168031253</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>2.861261684722876</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>130.1891601300149</v>
+        <v>160.292486168804</v>
       </c>
       <c r="C29" t="n">
-        <v>112.7282102375418</v>
+        <v>112.7282102375419</v>
       </c>
       <c r="D29" t="n">
-        <v>102.1383600872173</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>154.3313642082458</v>
       </c>
       <c r="G29" t="n">
         <v>412.872826975967</v>
@@ -24736,7 +24736,7 @@
         <v>212.4589161789235</v>
       </c>
       <c r="U29" t="n">
-        <v>28.70990457002648</v>
+        <v>251.1512600647031</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>133.6932571225879</v>
       </c>
     </row>
     <row r="30">
@@ -24770,16 +24770,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>13.66437361772628</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.0434004063341</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>99.67905345297832</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>44.63384100281499</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>19.43654989674721</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>147.5340725715039</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>194.9243458019727</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>161.1682491766124</v>
       </c>
     </row>
     <row r="31">
@@ -24855,13 +24855,13 @@
         <v>166.9010051432459</v>
       </c>
       <c r="H31" t="n">
-        <v>117.4277990392238</v>
+        <v>152.5363108485471</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>122.6719776188571</v>
       </c>
       <c r="J31" t="n">
-        <v>16.29800310112374</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>128.2841871185987</v>
       </c>
       <c r="S31" t="n">
         <v>205.0213201227627</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2595762174793</v>
+        <v>33.71489468401361</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>50.71635307230696</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24925,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>129.3856885387961</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>154.3313642082457</v>
       </c>
       <c r="G32" t="n">
         <v>412.872826975967</v>
       </c>
       <c r="H32" t="n">
-        <v>314.5894808065129</v>
+        <v>62.04479927304723</v>
       </c>
       <c r="I32" t="n">
         <v>116.7967635091317</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>153.6484831749546</v>
       </c>
       <c r="T32" t="n">
         <v>212.4589161789235</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1512600647031</v>
       </c>
       <c r="V32" t="n">
-        <v>75.2075769366692</v>
+        <v>105.3109029754583</v>
       </c>
       <c r="W32" t="n">
-        <v>96.69628718394731</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>299.5448068899845</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24998,13 +24998,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>140.1354988892706</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25013,7 +25013,7 @@
         <v>136.0434004063341</v>
       </c>
       <c r="H33" t="n">
-        <v>99.67905345297832</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>44.63384100281499</v>
@@ -25049,19 +25049,19 @@
         <v>147.5340725715039</v>
       </c>
       <c r="T33" t="n">
-        <v>84.96106192091817</v>
+        <v>194.9243458019727</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.8558480838119</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.06798188572784625</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>152.5363108485471</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>122.6719776188571</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>223.288426872372</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2595762174793</v>
+        <v>33.71489468401356</v>
       </c>
       <c r="V34" t="n">
-        <v>189.5713717086564</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>33.9783168031253</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,22 +25156,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>112.7282102375417</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>102.1383600872171</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>154.3313642082456</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>412.872826975967</v>
       </c>
       <c r="H35" t="n">
-        <v>314.5894808065129</v>
+        <v>205.7108431322486</v>
       </c>
       <c r="I35" t="n">
         <v>116.7967635091317</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>153.6484831749546</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.4589161789235</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>28.70990457002637</v>
+        <v>251.1512600647031</v>
       </c>
       <c r="V35" t="n">
-        <v>75.20757693666908</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>117.1864191450032</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25238,22 +25238,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.0434004063341</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>99.67905345297832</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>44.63384100281499</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>19.43654989674721</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>147.5340725715039</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>194.9243458019727</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>202.7937933191405</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>175.607190307348</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>45.24463193747381</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.9010051432459</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>152.5363108485471</v>
       </c>
       <c r="I37" t="n">
-        <v>122.6719776188571</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>16.29800310112374</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.90025944408654</v>
+        <v>128.2841871185987</v>
       </c>
       <c r="S37" t="n">
         <v>205.0213201227627</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>223.288426872372</v>
       </c>
       <c r="U37" t="n">
         <v>33.71489468401344</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>33.97831680312518</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.1891601300149</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25408,10 +25408,10 @@
         <v>412.872826975967</v>
       </c>
       <c r="H38" t="n">
-        <v>314.5894808065129</v>
+        <v>62.04479927304723</v>
       </c>
       <c r="I38" t="n">
-        <v>116.7967635091317</v>
+        <v>105.420902724616</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>143.6660438592016</v>
+        <v>153.6484831749546</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1512600647031</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>75.2075769366692</v>
       </c>
       <c r="W38" t="n">
-        <v>96.69628718394736</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>117.1864191450034</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25472,13 +25472,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>128.1940523876235</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>82.84544455645712</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>19.43654989674721</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>147.5340725715039</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>194.9243458019727</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.9010051432459</v>
@@ -25569,10 +25569,10 @@
         <v>152.5363108485471</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>122.6719776188571</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>16.29800310112374</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>113.4542442950376</v>
+        <v>128.2841871185987</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>205.0213201227627</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>223.288426872372</v>
       </c>
       <c r="U40" t="n">
-        <v>33.71489468401361</v>
+        <v>33.71489468401356</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>33.9783168031253</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>2.861261684722876</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.1891601300149</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>245.8044039464188</v>
       </c>
       <c r="E41" t="n">
-        <v>129.3856885387961</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>412.872826975967</v>
+        <v>160.3281454425013</v>
       </c>
       <c r="H41" t="n">
-        <v>314.5894808065129</v>
+        <v>62.04479927304723</v>
       </c>
       <c r="I41" t="n">
         <v>116.7967635091317</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>153.6484831749546</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.4589161789235</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.1512600647031</v>
       </c>
       <c r="V41" t="n">
-        <v>105.3109029754583</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>133.6932571225879</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25718,10 +25718,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.0434004063341</v>
       </c>
       <c r="H42" t="n">
         <v>99.67905345297832</v>
@@ -25757,25 +25757,25 @@
         <v>19.43654989674721</v>
       </c>
       <c r="S42" t="n">
-        <v>72.48214786423948</v>
+        <v>147.5340725715039</v>
       </c>
       <c r="T42" t="n">
         <v>194.9243458019727</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8558480838119</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>141.731699279865</v>
       </c>
     </row>
     <row r="43">
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.9010051432459</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>152.5363108485471</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>122.6719776188571</v>
@@ -25836,22 +25836,22 @@
         <v>128.2841871185987</v>
       </c>
       <c r="S43" t="n">
-        <v>178.6263271463919</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>33.71489468401356</v>
+        <v>53.93123910933338</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>130.1891601300149</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>142.831536276331</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,16 +25876,16 @@
         <v>129.3856885387961</v>
       </c>
       <c r="F44" t="n">
-        <v>154.3313642082458</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>412.872826975967</v>
       </c>
       <c r="H44" t="n">
-        <v>208.9448888209681</v>
+        <v>314.5894808065129</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>116.7967635091317</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25943,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>63.13624148191418</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.0434004063341</v>
+        <v>53.98953322867864</v>
       </c>
       <c r="H45" t="n">
         <v>99.67905345297832</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>19.43654989674721</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>147.5340725715039</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>194.9243458019727</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.8558480838119</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>138.9910076682436</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.9010051432459</v>
@@ -26043,7 +26043,7 @@
         <v>152.5363108485471</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>122.6719776188571</v>
       </c>
       <c r="J46" t="n">
         <v>16.29800310112374</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>223.288426872372</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2595762174793</v>
+        <v>193.5957548856689</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>485153.5658931128</v>
+        <v>485153.5658931126</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>485153.5658931128</v>
+        <v>485153.5658931129</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>485153.5658931128</v>
+        <v>485153.5658931129</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>540258.758106417</v>
+        <v>540258.7581064168</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>540258.7581064169</v>
+        <v>540258.7581064168</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>540258.7581064169</v>
+        <v>540258.7581064168</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91381.29470172944</v>
+        <v>91381.29470172945</v>
       </c>
       <c r="C2" t="n">
         <v>91381.29470172945</v>
@@ -26322,13 +26322,13 @@
         <v>91381.29470172944</v>
       </c>
       <c r="E2" t="n">
-        <v>153375.3739746993</v>
+        <v>153375.3739746992</v>
       </c>
       <c r="F2" t="n">
         <v>153375.3739746993</v>
       </c>
       <c r="G2" t="n">
-        <v>153375.3739746992</v>
+        <v>153375.3739746993</v>
       </c>
       <c r="H2" t="n">
         <v>153375.3739746993</v>
@@ -26337,22 +26337,22 @@
         <v>170501.5144400072</v>
       </c>
       <c r="J2" t="n">
-        <v>170501.5144400072</v>
+        <v>170501.5144400071</v>
       </c>
       <c r="K2" t="n">
         <v>170501.5144400071</v>
       </c>
       <c r="L2" t="n">
-        <v>170501.514440007</v>
+        <v>170501.5144400072</v>
       </c>
       <c r="M2" t="n">
-        <v>170501.5144400071</v>
+        <v>170501.5144400072</v>
       </c>
       <c r="N2" t="n">
         <v>170501.5144400072</v>
       </c>
       <c r="O2" t="n">
-        <v>170501.5144400072</v>
+        <v>170501.5144400071</v>
       </c>
       <c r="P2" t="n">
         <v>170501.5144400072</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>496633.4107041957</v>
+        <v>496633.4107041954</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.695895773285884e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>59421.53424244023</v>
+        <v>59421.5342424402</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>46732.12642419558</v>
+        <v>46732.12642419555</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>53753.7027657232</v>
       </c>
       <c r="E4" t="n">
-        <v>7145.895421973699</v>
+        <v>7145.895421973698</v>
       </c>
       <c r="F4" t="n">
-        <v>7145.895421973699</v>
+        <v>7145.895421973701</v>
       </c>
       <c r="G4" t="n">
-        <v>7145.895421973699</v>
+        <v>7145.895421973701</v>
       </c>
       <c r="H4" t="n">
-        <v>7145.895421973699</v>
+        <v>7145.895421973702</v>
       </c>
       <c r="I4" t="n">
         <v>8914.207590806353</v>
@@ -26444,7 +26444,7 @@
         <v>8914.207590806353</v>
       </c>
       <c r="K4" t="n">
-        <v>8914.207590806353</v>
+        <v>8914.207590806347</v>
       </c>
       <c r="L4" t="n">
         <v>8914.207590806353</v>
@@ -26453,7 +26453,7 @@
         <v>8914.20759080636</v>
       </c>
       <c r="N4" t="n">
-        <v>8914.207590806349</v>
+        <v>8914.207590806353</v>
       </c>
       <c r="O4" t="n">
         <v>8914.207590806353</v>
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>23358.20041161357</v>
+        <v>23358.20041161354</v>
       </c>
       <c r="F5" t="n">
         <v>23358.20041161357</v>
@@ -26487,7 +26487,7 @@
         <v>23358.20041161357</v>
       </c>
       <c r="H5" t="n">
-        <v>23358.20041161357</v>
+        <v>23358.20041161358</v>
       </c>
       <c r="I5" t="n">
         <v>28531.51401350797</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3999.991936006234</v>
+        <v>-11150.68203402852</v>
       </c>
       <c r="C6" t="n">
-        <v>3999.991936006249</v>
+        <v>-11150.68203402852</v>
       </c>
       <c r="D6" t="n">
-        <v>3999.991936006234</v>
+        <v>-11150.68203402853</v>
       </c>
       <c r="E6" t="n">
-        <v>-373762.1325630837</v>
+        <v>-385266.0959876495</v>
       </c>
       <c r="F6" t="n">
-        <v>122871.2781411121</v>
+        <v>111367.3147165458</v>
       </c>
       <c r="G6" t="n">
-        <v>122871.278141112</v>
+        <v>111367.3147165461</v>
       </c>
       <c r="H6" t="n">
-        <v>122871.278141112</v>
+        <v>111367.3147165461</v>
       </c>
       <c r="I6" t="n">
-        <v>73634.25859325266</v>
+        <v>63137.71519605783</v>
       </c>
       <c r="J6" t="n">
-        <v>133055.7928356929</v>
+        <v>122559.2494384978</v>
       </c>
       <c r="K6" t="n">
-        <v>133055.7928356928</v>
+        <v>122559.2494384979</v>
       </c>
       <c r="L6" t="n">
-        <v>133055.7928356927</v>
+        <v>122559.2494384979</v>
       </c>
       <c r="M6" t="n">
-        <v>86323.66641149722</v>
+        <v>75827.12301430241</v>
       </c>
       <c r="N6" t="n">
-        <v>133055.7928356928</v>
+        <v>122559.249438498</v>
       </c>
       <c r="O6" t="n">
-        <v>133055.7928356929</v>
+        <v>122559.2494384979</v>
       </c>
       <c r="P6" t="n">
-        <v>133055.7928356929</v>
+        <v>122559.2494384979</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="F3" t="n">
         <v>548.4699409129046</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="F4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G4" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="H4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="I4" t="n">
         <v>252.5446815334657</v>
@@ -26816,7 +26816,7 @@
         <v>252.5446815334657</v>
       </c>
       <c r="K4" t="n">
-        <v>252.5446815334657</v>
+        <v>252.5446815334656</v>
       </c>
       <c r="L4" t="n">
         <v>252.5446815334657</v>
@@ -26825,7 +26825,7 @@
         <v>252.5446815334658</v>
       </c>
       <c r="N4" t="n">
-        <v>252.5446815334656</v>
+        <v>252.5446815334657</v>
       </c>
       <c r="O4" t="n">
         <v>252.5446815334657</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>65.01909436714584</v>
+        <v>65.0190943671457</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H11" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I11" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J11" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K11" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L11" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M11" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N11" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O11" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P11" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R11" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S11" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T11" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H12" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I12" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J12" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K12" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L12" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M12" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N12" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O12" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P12" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R12" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S12" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T12" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H13" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I13" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J13" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K13" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L13" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M13" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N13" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O13" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R13" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S13" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T13" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K11" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L11" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M11" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N11" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O11" t="n">
-        <v>141.4033554405812</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P11" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L12" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M12" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O12" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P12" t="n">
-        <v>91.30185944855694</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>92.63945645062394</v>
       </c>
       <c r="L13" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M13" t="n">
-        <v>187.5255871663199</v>
+        <v>170.306020310542</v>
       </c>
       <c r="N13" t="n">
-        <v>187.5255871663199</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O13" t="n">
-        <v>164.382023673283</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P13" t="n">
-        <v>28.45844197068212</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35810,19 +35810,19 @@
         <v>92.63945645062401</v>
       </c>
       <c r="L16" t="n">
-        <v>157.4143504322377</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M16" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N16" t="n">
-        <v>23.66518529520826</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O16" t="n">
-        <v>164.382023673283</v>
+        <v>100.2010091933412</v>
       </c>
       <c r="P16" t="n">
-        <v>116.8989542469472</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L19" t="n">
         <v>174.6339172880152</v>
@@ -36056,10 +36056,10 @@
         <v>187.5255871663199</v>
       </c>
       <c r="O19" t="n">
-        <v>75.94151139701789</v>
+        <v>100.2010091933412</v>
       </c>
       <c r="P19" t="n">
-        <v>116.8989542469472</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>138.0910091848229</v>
       </c>
       <c r="P21" t="n">
-        <v>91.30185944855675</v>
+        <v>91.30185944855734</v>
       </c>
       <c r="Q21" t="n">
         <v>10.60944440764996</v>
@@ -36281,16 +36281,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L22" t="n">
-        <v>86.19340501175009</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M22" t="n">
-        <v>187.5255871663199</v>
+        <v>168.9203199809857</v>
       </c>
       <c r="N22" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O22" t="n">
         <v>164.382023673283</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>83.05431912357005</v>
       </c>
       <c r="K24" t="n">
         <v>72.09890592881416</v>
@@ -36454,7 +36454,7 @@
         <v>166.7346051620535</v>
       </c>
       <c r="P24" t="n">
-        <v>197.3451896078832</v>
+        <v>114.2908704843131</v>
       </c>
       <c r="Q24" t="n">
         <v>25.976989475973</v>
@@ -36533,10 +36533,10 @@
         <v>178.6480288061262</v>
       </c>
       <c r="P25" t="n">
-        <v>100.8430355607852</v>
+        <v>105.9514695484147</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.108433987629539</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>83.05431912357005</v>
       </c>
       <c r="K27" t="n">
-        <v>155.1532250523842</v>
+        <v>72.09890592881416</v>
       </c>
       <c r="L27" t="n">
         <v>143.7363221901828</v>
@@ -36764,16 +36764,16 @@
         <v>210.442289624707</v>
       </c>
       <c r="N28" t="n">
-        <v>182.6650032704495</v>
+        <v>210.9279538763017</v>
       </c>
       <c r="O28" t="n">
         <v>178.6480288061262</v>
       </c>
       <c r="P28" t="n">
-        <v>129.1059861666376</v>
+        <v>105.9514695484147</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.108433987629539</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>196.3247957334098</v>
       </c>
       <c r="N29" t="n">
-        <v>204.1619486835027</v>
+        <v>204.1619486835028</v>
       </c>
       <c r="O29" t="n">
         <v>179.3143779345552</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>155.1532250523842</v>
+        <v>155.153225052384</v>
       </c>
       <c r="L30" t="n">
         <v>143.7363221901828</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>76.10274366299495</v>
+        <v>81.21117765062422</v>
       </c>
       <c r="L31" t="n">
         <v>189.6394644929623</v>
@@ -37010,7 +37010,7 @@
         <v>129.1059861666376</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.108433987629539</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>83.05431912357005</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>72.09890592881416</v>
@@ -37162,7 +37162,7 @@
         <v>206.7969877676395</v>
       </c>
       <c r="O33" t="n">
-        <v>166.7346051620535</v>
+        <v>249.7889242856235</v>
       </c>
       <c r="P33" t="n">
         <v>114.2908704843131</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>81.21117765062445</v>
+        <v>76.10274366299495</v>
       </c>
       <c r="L34" t="n">
         <v>189.6394644929623</v>
@@ -37247,7 +37247,7 @@
         <v>129.1059861666376</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>5.108433987629539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>114.2908704843131</v>
       </c>
       <c r="Q39" t="n">
-        <v>109.0313085995428</v>
+        <v>109.031308599543</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37718,7 +37718,7 @@
         <v>178.6480288061262</v>
       </c>
       <c r="P40" t="n">
-        <v>105.9514695484145</v>
+        <v>105.9514695484147</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>83.05431912357005</v>
       </c>
       <c r="K42" t="n">
         <v>72.09890592881416</v>
@@ -37879,7 +37879,7 @@
         <v>114.2908704843131</v>
       </c>
       <c r="Q42" t="n">
-        <v>109.031308599543</v>
+        <v>25.976989475973</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>76.10274366299495</v>
+        <v>81.21117765062445</v>
       </c>
       <c r="L43" t="n">
         <v>189.6394644929623</v>
@@ -37958,7 +37958,7 @@
         <v>129.1059861666376</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.108433987629539</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>83.05431912356983</v>
       </c>
       <c r="K45" t="n">
-        <v>155.153225052384</v>
+        <v>72.09890592881416</v>
       </c>
       <c r="L45" t="n">
         <v>143.7363221901828</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>104.3656942688473</v>
+        <v>76.10274366299473</v>
       </c>
       <c r="L46" t="n">
         <v>189.6394644929623</v>
@@ -38192,7 +38192,7 @@
         <v>178.6480288061262</v>
       </c>
       <c r="P46" t="n">
-        <v>100.843035560785</v>
+        <v>129.1059861666376</v>
       </c>
       <c r="Q46" t="n">
         <v>5.108433987629539</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_10_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_10_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>266049.1559692647</v>
+        <v>358921.9624326652</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17544022.27859271</v>
+        <v>17544022.27859272</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5480276.293846217</v>
+        <v>5480276.293846216</v>
       </c>
     </row>
     <row r="11">
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.396723986041065</v>
       </c>
       <c r="F11" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>187.5255871663196</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>11.36529914368145</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>153.8072380324128</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T11" t="n">
         <v>187.5255871663196</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S12" t="n">
-        <v>132.5380477013879</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>138.2613113589518</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="T13" t="n">
-        <v>18.73857452952512</v>
+        <v>29.00708539155792</v>
       </c>
       <c r="U13" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>187.5255871663196</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>6.396723986041543</v>
+        <v>6.396723986041431</v>
       </c>
       <c r="S14" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T14" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U14" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1688,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>33.27262056724928</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1745,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X15" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1809,31 +1809,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>161.8294550022487</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>60.2348913599552</v>
       </c>
     </row>
     <row r="17">
@@ -1846,20 +1846,20 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>6.396723986041431</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S17" t="n">
-        <v>158.7758131900531</v>
+        <v>153.8072380324131</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>51.21178417960153</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="19">
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>136.4027399669324</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>138.3956966967179</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>187.52558716632</v>
+        <v>6.396723986041431</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H20" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T20" t="n">
-        <v>182.5570120086801</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>26.91122581714238</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V21" t="n">
-        <v>187.52558716632</v>
+        <v>138.261311358952</v>
       </c>
       <c r="W21" t="n">
-        <v>138.2613113589522</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="22">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>108.9211748018936</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.343082173845801</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>169.5230619866312</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>252.5446815334657</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>252.5446815334657</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>252.5446815334657</v>
+        <v>252.5446815334656</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>70.18629378848448</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>153.6484831749546</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1512600647031</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>222.4413554946766</v>
+        <v>252.5446815334656</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.0434004063341</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>19.43654989674721</v>
+        <v>5.32233991012076</v>
       </c>
       <c r="S24" t="n">
-        <v>147.5340725715039</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>194.9243458019727</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>31.97767300509209</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.9010051432459</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>152.5363108485471</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>223.288426872372</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>252.5446815334657</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>26.39499297637074</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>18.50984715793381</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>252.5446815334657</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>252.5446815334656</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>252.5446815334656</v>
       </c>
       <c r="G26" t="n">
-        <v>252.5446815334657</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>153.6484831749546</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>68.79287231972197</v>
+        <v>212.4589161789235</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>252.5446815334657</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>9.982439315753151</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>252.5446815334656</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>117.0983455929353</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>19.43654989674721</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>194.9243458019727</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8558480838119</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>82.39068794814476</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>59.77299181617639</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>152.5363108485471</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>122.6719776188571</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>252.5446815334657</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>252.5446815334657</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>222.8483937043143</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>222.4413554946766</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>252.5446815334656</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>252.5446815334656</v>
+        <v>252.5446815334658</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>252.5446815334658</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>222.4413554946767</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>252.5446815334658</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>252.5446815334656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>44.514446600692</v>
+        <v>44.51444660069244</v>
       </c>
     </row>
     <row r="31">
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>42.95894954946468</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>16.29800310112374</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>223.288426872372</v>
       </c>
       <c r="U31" t="n">
-        <v>252.5446815334656</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>235.806645264284</v>
+        <v>252.5446815334658</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,64 +3034,64 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>252.5446815334657</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>105.6445919855448</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>116.7967635091317</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>252.5446815334657</v>
       </c>
-      <c r="F32" t="n">
+      <c r="W32" t="n">
         <v>252.5446815334657</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>252.5446815334657</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>222.4413554946766</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3110,22 +3110,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>17.50958156613035</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>99.67905345297832</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>19.43654989674721</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>147.5340725715039</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>194.9243458019727</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>221.4162362705463</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.3659807608413</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9010051432459</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>16.29800310112374</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>252.5446815334657</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>252.5446815334657</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>68.47558152180035</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>252.5446815334658</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>252.5446815334658</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>252.5446815334657</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>252.5446815334657</v>
       </c>
       <c r="H35" t="n">
-        <v>108.8786376742643</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>153.6484831749546</v>
       </c>
       <c r="T35" t="n">
-        <v>212.4589161789235</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>252.5446815334657</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>68.79287231972197</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>29.70862620386724</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.0434004063341</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>99.67905345297832</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>194.9243458019727</v>
       </c>
       <c r="U36" t="n">
-        <v>23.06205476467134</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>100.1764160854574</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.9010051432459</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>122.6719776188571</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>89.50037853280156</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>252.5446815334658</v>
+        <v>252.5446815334657</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>252.5446815334658</v>
+        <v>252.5446815334657</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>252.5446815334656</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>222.4413554946766</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>252.5446815334656</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>252.5446815334656</v>
       </c>
       <c r="H38" t="n">
-        <v>252.5446815334657</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>11.37586078451573</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.4589161789235</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1512600647031</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>252.5446815334657</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>44.51444660069222</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3593,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.0434004063341</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>99.67905345297832</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,22 +3632,22 @@
         <v>19.43654989674721</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>147.5340725715039</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8558480838119</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>180.6181282132065</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>18.50984715793375</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.9010051432459</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>152.5363108485471</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>252.5446815334657</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>252.5446815334657</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>222.8483937043143</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>252.5446815334658</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>108.8786376742642</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>252.5446815334657</v>
+        <v>252.5446815334658</v>
       </c>
       <c r="H41" t="n">
-        <v>252.5446815334657</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>9.982439315753201</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>153.6484831749546</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>212.4589161789235</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>252.5446815334658</v>
       </c>
     </row>
     <row r="42">
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>63.95099649743932</v>
+        <v>63.95099649743977</v>
       </c>
     </row>
     <row r="43">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>25.9879547667332</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.9010051432459</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>152.5363108485471</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>205.0213201227627</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>223.288426872372</v>
       </c>
       <c r="U43" t="n">
-        <v>232.3283371081459</v>
+        <v>252.5446815334658</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>252.5446815334658</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>252.5446815334656</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>222.4413554946766</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>252.5446815334656</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>252.5446815334656</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>222.4413554946766</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4058,19 +4058,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>82.05386717765545</v>
+        <v>44.514446600692</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,19 +4106,19 @@
         <v>19.43654989674721</v>
       </c>
       <c r="S45" t="n">
-        <v>147.5340725715039</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>194.9243458019727</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.8558480838119</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.9010051432459</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>205.0213201227627</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>223.288426872372</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>92.66382133181038</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>162.6201180939675</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>393.8416170062745</v>
+        <v>210.8831693494275</v>
       </c>
       <c r="C11" t="n">
-        <v>393.8416170062745</v>
+        <v>210.8831693494275</v>
       </c>
       <c r="D11" t="n">
-        <v>393.8416170062745</v>
+        <v>210.8831693494275</v>
       </c>
       <c r="E11" t="n">
-        <v>393.8416170062745</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="F11" t="n">
         <v>204.4218319897901</v>
@@ -5065,28 +5065,28 @@
         <v>750.1023486652786</v>
       </c>
       <c r="R11" t="n">
-        <v>738.6222485201457</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S11" t="n">
-        <v>583.2614020227591</v>
+        <v>589.7227393823965</v>
       </c>
       <c r="T11" t="n">
-        <v>393.8416170062745</v>
+        <v>400.302954365912</v>
       </c>
       <c r="U11" t="n">
-        <v>393.8416170062745</v>
+        <v>210.8831693494275</v>
       </c>
       <c r="V11" t="n">
-        <v>393.8416170062745</v>
+        <v>210.8831693494275</v>
       </c>
       <c r="W11" t="n">
-        <v>393.8416170062745</v>
+        <v>210.8831693494275</v>
       </c>
       <c r="X11" t="n">
-        <v>393.8416170062745</v>
+        <v>210.8831693494275</v>
       </c>
       <c r="Y11" t="n">
-        <v>393.8416170062745</v>
+        <v>210.8831693494275</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>448.0101957852227</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C12" t="n">
-        <v>448.0101957852227</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D12" t="n">
-        <v>299.0757861239715</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E12" t="n">
-        <v>299.0757861239715</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F12" t="n">
-        <v>152.5412281508564</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G12" t="n">
         <v>15.00204697330557</v>
@@ -5144,28 +5144,28 @@
         <v>750.1023486652786</v>
       </c>
       <c r="R12" t="n">
-        <v>750.1023486652786</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="S12" t="n">
-        <v>616.2255328052908</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="T12" t="n">
-        <v>616.2255328052908</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="U12" t="n">
-        <v>616.2255328052908</v>
+        <v>533.4995072678421</v>
       </c>
       <c r="V12" t="n">
-        <v>616.2255328052908</v>
+        <v>344.0797222513576</v>
       </c>
       <c r="W12" t="n">
-        <v>616.2255328052908</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="X12" t="n">
-        <v>616.2255328052908</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y12" t="n">
-        <v>616.2255328052908</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="13">
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>162.9151405556987</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C13" t="n">
-        <v>162.9151405556987</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D13" t="n">
-        <v>162.9151405556987</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E13" t="n">
         <v>15.00204697330557</v>
@@ -5205,10 +5205,10 @@
         <v>106.7151088594233</v>
       </c>
       <c r="L13" t="n">
-        <v>279.6026869745582</v>
+        <v>270.0335799401891</v>
       </c>
       <c r="M13" t="n">
-        <v>448.2056470819948</v>
+        <v>285.9838492295944</v>
       </c>
       <c r="N13" t="n">
         <v>471.6341805242508</v>
@@ -5220,31 +5220,31 @@
         <v>750.1023486652786</v>
       </c>
       <c r="Q13" t="n">
-        <v>750.1023486652786</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="R13" t="n">
-        <v>750.1023486652786</v>
+        <v>612.561488276858</v>
       </c>
       <c r="S13" t="n">
-        <v>750.1023486652786</v>
+        <v>423.1417032603734</v>
       </c>
       <c r="T13" t="n">
-        <v>731.1744956051522</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="U13" t="n">
-        <v>541.7547105886676</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="V13" t="n">
-        <v>352.3349255721832</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="W13" t="n">
-        <v>162.9151405556987</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="X13" t="n">
-        <v>162.9151405556987</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y13" t="n">
-        <v>162.9151405556987</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="C14" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="D14" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="E14" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="F14" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G14" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H14" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I14" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J14" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K14" t="n">
         <v>80.81213159058939</v>
@@ -5287,43 +5287,43 @@
         <v>191.8743094079184</v>
       </c>
       <c r="M14" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N14" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O14" t="n">
         <v>649.4845259985582</v>
       </c>
       <c r="P14" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q14" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R14" t="n">
-        <v>743.6410113056419</v>
+        <v>743.6410113056417</v>
       </c>
       <c r="S14" t="n">
-        <v>583.26140202276</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="T14" t="n">
-        <v>393.8416170062752</v>
+        <v>393.841617006275</v>
       </c>
       <c r="U14" t="n">
-        <v>204.4218319897904</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="V14" t="n">
-        <v>204.4218319897904</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="W14" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X14" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897903</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>181.8429936158253</v>
+        <v>344.079722251358</v>
       </c>
       <c r="C15" t="n">
-        <v>15.0020469733056</v>
+        <v>344.079722251358</v>
       </c>
       <c r="D15" t="n">
-        <v>15.0020469733056</v>
+        <v>195.1453125901068</v>
       </c>
       <c r="E15" t="n">
-        <v>15.0020469733056</v>
+        <v>195.1453125901068</v>
       </c>
       <c r="F15" t="n">
-        <v>15.0020469733056</v>
+        <v>48.61075461699173</v>
       </c>
       <c r="G15" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H15" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I15" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J15" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K15" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L15" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M15" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N15" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O15" t="n">
-        <v>649.2101578476351</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P15" t="n">
-        <v>739.5989987017064</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q15" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R15" t="n">
-        <v>750.1023486652798</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S15" t="n">
-        <v>750.1023486652798</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="T15" t="n">
-        <v>750.1023486652798</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="U15" t="n">
-        <v>750.1023486652798</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="V15" t="n">
-        <v>560.6825636487949</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="W15" t="n">
-        <v>560.6825636487949</v>
+        <v>344.079722251358</v>
       </c>
       <c r="X15" t="n">
-        <v>371.2627786323101</v>
+        <v>344.079722251358</v>
       </c>
       <c r="Y15" t="n">
-        <v>181.8429936158253</v>
+        <v>344.079722251358</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.0020469733056</v>
+        <v>507.6105592290244</v>
       </c>
       <c r="C16" t="n">
-        <v>15.0020469733056</v>
+        <v>338.6743763011175</v>
       </c>
       <c r="D16" t="n">
-        <v>15.0020469733056</v>
+        <v>338.6743763011175</v>
       </c>
       <c r="E16" t="n">
-        <v>15.0020469733056</v>
+        <v>338.6743763011175</v>
       </c>
       <c r="F16" t="n">
-        <v>15.0020469733056</v>
+        <v>338.6743763011175</v>
       </c>
       <c r="G16" t="n">
-        <v>15.0020469733056</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="H16" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I16" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J16" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K16" t="n">
         <v>106.7151088594234</v>
@@ -5445,43 +5445,43 @@
         <v>279.6026869745584</v>
       </c>
       <c r="M16" t="n">
-        <v>465.2530182692152</v>
+        <v>447.3950989318186</v>
       </c>
       <c r="N16" t="n">
-        <v>650.903349563872</v>
+        <v>633.0454302264752</v>
       </c>
       <c r="O16" t="n">
-        <v>750.1023486652798</v>
+        <v>634.3723839608017</v>
       </c>
       <c r="P16" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q16" t="n">
-        <v>746.7254979846275</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R16" t="n">
-        <v>746.7254979846275</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S16" t="n">
-        <v>557.3057129681426</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T16" t="n">
-        <v>367.8859279516578</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U16" t="n">
-        <v>367.8859279516578</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V16" t="n">
-        <v>178.466142935173</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W16" t="n">
-        <v>15.0020469733056</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X16" t="n">
-        <v>15.0020469733056</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.0020469733056</v>
+        <v>689.2590240592641</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>204.4218319897903</v>
+        <v>393.841617006275</v>
       </c>
       <c r="C17" t="n">
         <v>204.4218319897903</v>
       </c>
       <c r="D17" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="E17" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="F17" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G17" t="n">
         <v>15.00204697330559</v>
@@ -5527,40 +5527,40 @@
         <v>347.1218190644753</v>
       </c>
       <c r="N17" t="n">
-        <v>509.4952041123827</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O17" t="n">
         <v>649.4845259985582</v>
       </c>
       <c r="P17" t="n">
-        <v>734.4611726020264</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q17" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R17" t="n">
-        <v>743.6410113056418</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S17" t="n">
-        <v>583.2614020227599</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="T17" t="n">
-        <v>583.2614020227599</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="U17" t="n">
-        <v>583.2614020227599</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="V17" t="n">
-        <v>583.2614020227599</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="W17" t="n">
-        <v>583.2614020227599</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="X17" t="n">
-        <v>583.2614020227599</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="Y17" t="n">
-        <v>393.8416170062751</v>
+        <v>583.2614020227597</v>
       </c>
     </row>
     <row r="18">
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>189.4550762544326</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C18" t="n">
         <v>15.00204697330559</v>
@@ -5594,52 +5594,52 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J18" t="n">
-        <v>15.0020469733055</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K18" t="n">
-        <v>67.13418877024205</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L18" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M18" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N18" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O18" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P18" t="n">
-        <v>739.5989987017061</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q18" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R18" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S18" t="n">
-        <v>598.8192732198759</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T18" t="n">
-        <v>409.3994882033911</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U18" t="n">
-        <v>409.3994882033911</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V18" t="n">
-        <v>409.3994882033911</v>
+        <v>393.841617006275</v>
       </c>
       <c r="W18" t="n">
-        <v>409.3994882033911</v>
+        <v>393.841617006275</v>
       </c>
       <c r="X18" t="n">
-        <v>357.6704132745007</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y18" t="n">
-        <v>357.6704132745007</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>746.7254979846273</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="C19" t="n">
-        <v>577.7893150567204</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="D19" t="n">
-        <v>427.6726756443846</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="E19" t="n">
-        <v>279.7595820619915</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="F19" t="n">
-        <v>279.7595820619915</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="G19" t="n">
-        <v>279.7595820619915</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="H19" t="n">
-        <v>141.9790366408477</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="I19" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J19" t="n">
         <v>15.00204697330559</v>
@@ -5679,46 +5679,46 @@
         <v>106.7151088594234</v>
       </c>
       <c r="L19" t="n">
-        <v>279.6026869745584</v>
+        <v>118.7527324484195</v>
       </c>
       <c r="M19" t="n">
-        <v>465.2530182692151</v>
+        <v>285.9838492295949</v>
       </c>
       <c r="N19" t="n">
-        <v>650.9033495638718</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O19" t="n">
-        <v>750.1023486652796</v>
+        <v>634.3723839608017</v>
       </c>
       <c r="P19" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q19" t="n">
-        <v>746.7254979846273</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R19" t="n">
-        <v>746.7254979846273</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="S19" t="n">
-        <v>746.7254979846273</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="T19" t="n">
-        <v>746.7254979846273</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="U19" t="n">
-        <v>746.7254979846273</v>
+        <v>417.5120799411546</v>
       </c>
       <c r="V19" t="n">
-        <v>746.7254979846273</v>
+        <v>228.0922949246699</v>
       </c>
       <c r="W19" t="n">
-        <v>746.7254979846273</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="X19" t="n">
-        <v>746.7254979846273</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="Y19" t="n">
-        <v>746.7254979846273</v>
+        <v>38.67250990818523</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>393.8416170062753</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="C20" t="n">
-        <v>393.8416170062753</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="D20" t="n">
-        <v>204.4218319897905</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="E20" t="n">
-        <v>204.4218319897905</v>
+        <v>393.841617006275</v>
       </c>
       <c r="F20" t="n">
-        <v>204.4218319897905</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G20" t="n">
-        <v>204.4218319897905</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H20" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I20" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J20" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K20" t="n">
-        <v>80.81213159058984</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L20" t="n">
-        <v>191.874309407919</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M20" t="n">
-        <v>347.1218190644761</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N20" t="n">
-        <v>509.4952041123834</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O20" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P20" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q20" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R20" t="n">
-        <v>738.6222485201473</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S20" t="n">
-        <v>578.2426392372654</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="T20" t="n">
-        <v>393.8416170062753</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="U20" t="n">
-        <v>393.8416170062753</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="V20" t="n">
-        <v>393.8416170062753</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="W20" t="n">
-        <v>393.8416170062753</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="X20" t="n">
-        <v>393.8416170062753</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="Y20" t="n">
-        <v>393.8416170062753</v>
+        <v>589.7227393823975</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C21" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D21" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E21" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F21" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G21" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H21" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I21" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J21" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K21" t="n">
-        <v>67.13418877024215</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L21" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M21" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N21" t="n">
         <v>512.5000587546601</v>
       </c>
       <c r="O21" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P21" t="n">
-        <v>739.5989987017066</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q21" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R21" t="n">
-        <v>722.9192922843281</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S21" t="n">
-        <v>722.9192922843281</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="T21" t="n">
-        <v>722.9192922843281</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="U21" t="n">
-        <v>533.4995072678432</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="V21" t="n">
-        <v>344.0797222513584</v>
+        <v>393.841617006275</v>
       </c>
       <c r="W21" t="n">
-        <v>204.4218319897905</v>
+        <v>393.841617006275</v>
       </c>
       <c r="X21" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>746.7254979846277</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C22" t="n">
-        <v>746.7254979846277</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D22" t="n">
-        <v>596.608858572292</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E22" t="n">
-        <v>448.6957649898989</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F22" t="n">
-        <v>448.6957649898989</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G22" t="n">
-        <v>280.0069415528138</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H22" t="n">
-        <v>125.023435662087</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I22" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J22" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7151088594234</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L22" t="n">
-        <v>118.7527324484195</v>
+        <v>187.8896250884406</v>
       </c>
       <c r="M22" t="n">
-        <v>285.9838492295953</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N22" t="n">
-        <v>471.6341805242521</v>
+        <v>559.190287677754</v>
       </c>
       <c r="O22" t="n">
-        <v>634.3723839608023</v>
+        <v>721.9284911143041</v>
       </c>
       <c r="P22" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q22" t="n">
-        <v>746.7254979846277</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R22" t="n">
-        <v>746.7254979846277</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="S22" t="n">
-        <v>746.7254979846277</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="T22" t="n">
-        <v>746.7254979846277</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="U22" t="n">
-        <v>746.7254979846277</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="V22" t="n">
-        <v>746.7254979846277</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="W22" t="n">
-        <v>746.7254979846277</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="X22" t="n">
-        <v>746.7254979846277</v>
+        <v>367.8859279516577</v>
       </c>
       <c r="Y22" t="n">
-        <v>746.7254979846277</v>
+        <v>196.6505118035453</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>530.3948503478605</v>
+        <v>346.1944586862633</v>
       </c>
       <c r="C23" t="n">
-        <v>275.2992124352689</v>
+        <v>346.1944586862633</v>
       </c>
       <c r="D23" t="n">
-        <v>20.20357452267726</v>
+        <v>91.09882077367169</v>
       </c>
       <c r="E23" t="n">
-        <v>20.20357452267726</v>
+        <v>91.09882077367169</v>
       </c>
       <c r="F23" t="n">
-        <v>20.20357452267726</v>
+        <v>91.09882077367169</v>
       </c>
       <c r="G23" t="n">
-        <v>20.20357452267726</v>
+        <v>91.09882077367169</v>
       </c>
       <c r="H23" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="I23" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="J23" t="n">
         <v>45.14139246873057</v>
@@ -5995,19 +5995,19 @@
         <v>133.255235353424</v>
       </c>
       <c r="L23" t="n">
-        <v>279.4700108687929</v>
+        <v>279.4700108687928</v>
       </c>
       <c r="M23" t="n">
-        <v>473.8315586448686</v>
+        <v>473.8315586448683</v>
       </c>
       <c r="N23" t="n">
-        <v>675.9518878415363</v>
+        <v>675.9518878415361</v>
       </c>
       <c r="O23" t="n">
-        <v>853.4731219967457</v>
+        <v>853.4731219967458</v>
       </c>
       <c r="P23" t="n">
-        <v>970.4823873903556</v>
+        <v>970.4823873903554</v>
       </c>
       <c r="Q23" t="n">
         <v>1010.178726133863</v>
@@ -6016,25 +6016,25 @@
         <v>1010.178726133863</v>
       </c>
       <c r="S23" t="n">
-        <v>1010.178726133863</v>
+        <v>854.9782380783529</v>
       </c>
       <c r="T23" t="n">
-        <v>1010.178726133863</v>
+        <v>854.9782380783529</v>
       </c>
       <c r="U23" t="n">
-        <v>1010.178726133863</v>
+        <v>601.2900965988548</v>
       </c>
       <c r="V23" t="n">
-        <v>1010.178726133863</v>
+        <v>601.2900965988548</v>
       </c>
       <c r="W23" t="n">
-        <v>785.4904882604521</v>
+        <v>346.1944586862633</v>
       </c>
       <c r="X23" t="n">
-        <v>785.4904882604521</v>
+        <v>346.1944586862633</v>
       </c>
       <c r="Y23" t="n">
-        <v>785.4904882604521</v>
+        <v>346.1944586862633</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>612.3275733305134</v>
+        <v>166.7381324957923</v>
       </c>
       <c r="C24" t="n">
-        <v>612.3275733305134</v>
+        <v>166.7381324957923</v>
       </c>
       <c r="D24" t="n">
-        <v>463.393163669262</v>
+        <v>166.7381324957923</v>
       </c>
       <c r="E24" t="n">
-        <v>304.1557086638065</v>
+        <v>166.7381324957923</v>
       </c>
       <c r="F24" t="n">
-        <v>157.6211506906915</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="G24" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="H24" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="I24" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="J24" t="n">
-        <v>102.4273504550116</v>
+        <v>102.4273504550114</v>
       </c>
       <c r="K24" t="n">
-        <v>173.8052673245376</v>
+        <v>173.8052673245374</v>
       </c>
       <c r="L24" t="n">
-        <v>316.1042262928186</v>
+        <v>316.1042262928183</v>
       </c>
       <c r="M24" t="n">
-        <v>501.5172677727835</v>
+        <v>501.5172677727833</v>
       </c>
       <c r="N24" t="n">
-        <v>706.2462856627466</v>
+        <v>706.2462856627463</v>
       </c>
       <c r="O24" t="n">
-        <v>871.3135447731795</v>
+        <v>871.3135447731793</v>
       </c>
       <c r="P24" t="n">
-        <v>984.4615065526496</v>
+        <v>984.4615065526493</v>
       </c>
       <c r="Q24" t="n">
         <v>1010.178726133863</v>
       </c>
       <c r="R24" t="n">
-        <v>990.5458474502798</v>
+        <v>1004.802625214549</v>
       </c>
       <c r="S24" t="n">
-        <v>841.5215317214879</v>
+        <v>1004.802625214549</v>
       </c>
       <c r="T24" t="n">
-        <v>644.6282531336367</v>
+        <v>1004.802625214549</v>
       </c>
       <c r="U24" t="n">
-        <v>612.3275733305134</v>
+        <v>1004.802625214549</v>
       </c>
       <c r="V24" t="n">
-        <v>612.3275733305134</v>
+        <v>1004.802625214549</v>
       </c>
       <c r="W24" t="n">
-        <v>612.3275733305134</v>
+        <v>750.5652684863471</v>
       </c>
       <c r="X24" t="n">
-        <v>612.3275733305134</v>
+        <v>542.7137682808143</v>
       </c>
       <c r="Y24" t="n">
-        <v>612.3275733305134</v>
+        <v>334.9534695158603</v>
       </c>
     </row>
     <row r="25">
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.20357452267726</v>
+        <v>809.8334459925786</v>
       </c>
       <c r="C25" t="n">
-        <v>20.20357452267726</v>
+        <v>640.8972630646717</v>
       </c>
       <c r="D25" t="n">
-        <v>20.20357452267726</v>
+        <v>490.780623652336</v>
       </c>
       <c r="E25" t="n">
-        <v>20.20357452267726</v>
+        <v>342.8675300699429</v>
       </c>
       <c r="F25" t="n">
-        <v>20.20357452267726</v>
+        <v>342.8675300699429</v>
       </c>
       <c r="G25" t="n">
-        <v>20.20357452267726</v>
+        <v>174.2806561878763</v>
       </c>
       <c r="H25" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="I25" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="J25" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="K25" t="n">
-        <v>123.5256118488361</v>
+        <v>100.6026403967952</v>
       </c>
       <c r="L25" t="n">
-        <v>311.2686816968687</v>
+        <v>288.3457102448279</v>
       </c>
       <c r="M25" t="n">
-        <v>519.6065484253286</v>
+        <v>496.6835769732878</v>
       </c>
       <c r="N25" t="n">
-        <v>728.4252227628673</v>
+        <v>705.5022513108265</v>
       </c>
       <c r="O25" t="n">
-        <v>905.2867712809323</v>
+        <v>882.3637998288914</v>
       </c>
       <c r="P25" t="n">
         <v>1010.178726133863</v>
@@ -6177,22 +6177,22 @@
         <v>1010.178726133863</v>
       </c>
       <c r="T25" t="n">
-        <v>784.6348606062143</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="U25" t="n">
-        <v>529.5392226936226</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="V25" t="n">
-        <v>274.8547344877358</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="W25" t="n">
-        <v>248.1931254206946</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="X25" t="n">
-        <v>20.20357452267726</v>
+        <v>991.4819108228183</v>
       </c>
       <c r="Y25" t="n">
-        <v>20.20357452267726</v>
+        <v>991.4819108228183</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>530.3948503478605</v>
+        <v>530.3948503478604</v>
       </c>
       <c r="C26" t="n">
-        <v>530.3948503478605</v>
+        <v>530.3948503478604</v>
       </c>
       <c r="D26" t="n">
-        <v>275.2992124352689</v>
+        <v>530.3948503478604</v>
       </c>
       <c r="E26" t="n">
-        <v>275.2992124352689</v>
+        <v>275.2992124352688</v>
       </c>
       <c r="F26" t="n">
-        <v>275.2992124352689</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="G26" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="H26" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="I26" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="J26" t="n">
-        <v>45.14139246873056</v>
+        <v>45.14139246873016</v>
       </c>
       <c r="K26" t="n">
-        <v>133.255235353424</v>
+        <v>133.2552353534236</v>
       </c>
       <c r="L26" t="n">
-        <v>279.4700108687928</v>
+        <v>279.4700108687924</v>
       </c>
       <c r="M26" t="n">
-        <v>473.8315586448686</v>
+        <v>473.8315586448682</v>
       </c>
       <c r="N26" t="n">
-        <v>675.9518878415363</v>
+        <v>675.9518878415359</v>
       </c>
       <c r="O26" t="n">
-        <v>853.4731219967459</v>
+        <v>853.4731219967456</v>
       </c>
       <c r="P26" t="n">
-        <v>970.4823873903557</v>
+        <v>970.4823873903554</v>
       </c>
       <c r="Q26" t="n">
         <v>1010.178726133863</v>
@@ -6253,25 +6253,25 @@
         <v>1010.178726133863</v>
       </c>
       <c r="S26" t="n">
-        <v>854.9782380783531</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="T26" t="n">
-        <v>785.4904882604521</v>
+        <v>795.5737602965662</v>
       </c>
       <c r="U26" t="n">
-        <v>785.4904882604521</v>
+        <v>795.5737602965662</v>
       </c>
       <c r="V26" t="n">
-        <v>530.3948503478605</v>
+        <v>795.5737602965662</v>
       </c>
       <c r="W26" t="n">
-        <v>530.3948503478605</v>
+        <v>785.4904882604519</v>
       </c>
       <c r="X26" t="n">
-        <v>530.3948503478605</v>
+        <v>785.4904882604519</v>
       </c>
       <c r="Y26" t="n">
-        <v>530.3948503478605</v>
+        <v>530.3948503478604</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.20357452267726</v>
+        <v>312.9377609683854</v>
       </c>
       <c r="C27" t="n">
-        <v>20.20357452267726</v>
+        <v>138.4847316872584</v>
       </c>
       <c r="D27" t="n">
-        <v>20.20357452267726</v>
+        <v>138.4847316872584</v>
       </c>
       <c r="E27" t="n">
-        <v>20.20357452267726</v>
+        <v>138.4847316872584</v>
       </c>
       <c r="F27" t="n">
-        <v>20.20357452267726</v>
+        <v>138.4847316872584</v>
       </c>
       <c r="G27" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="H27" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="I27" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="J27" t="n">
-        <v>102.4273504550116</v>
+        <v>102.4273504550114</v>
       </c>
       <c r="K27" t="n">
-        <v>173.8052673245376</v>
+        <v>173.8052673245374</v>
       </c>
       <c r="L27" t="n">
-        <v>316.1042262928186</v>
+        <v>316.1042262928183</v>
       </c>
       <c r="M27" t="n">
-        <v>501.5172677727835</v>
+        <v>501.5172677727833</v>
       </c>
       <c r="N27" t="n">
-        <v>706.2462856627466</v>
+        <v>706.2462856627463</v>
       </c>
       <c r="O27" t="n">
-        <v>871.3135447731795</v>
+        <v>871.3135447731793</v>
       </c>
       <c r="P27" t="n">
-        <v>984.4615065526496</v>
+        <v>984.4615065526493</v>
       </c>
       <c r="Q27" t="n">
         <v>1010.178726133863</v>
       </c>
       <c r="R27" t="n">
-        <v>990.5458474502798</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="S27" t="n">
-        <v>990.5458474502798</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="T27" t="n">
-        <v>793.6525688624286</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="U27" t="n">
-        <v>565.5153485757498</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="V27" t="n">
-        <v>482.2924314564117</v>
+        <v>775.0266179021198</v>
       </c>
       <c r="W27" t="n">
-        <v>228.0550747282101</v>
+        <v>520.7892611739182</v>
       </c>
       <c r="X27" t="n">
-        <v>20.20357452267726</v>
+        <v>312.9377609683854</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.20357452267726</v>
+        <v>312.9377609683854</v>
       </c>
     </row>
     <row r="28">
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>20.20357452267726</v>
+        <v>527.5046870299584</v>
       </c>
       <c r="C28" t="n">
-        <v>20.20357452267726</v>
+        <v>358.5685041020515</v>
       </c>
       <c r="D28" t="n">
-        <v>20.20357452267726</v>
+        <v>358.5685041020515</v>
       </c>
       <c r="E28" t="n">
-        <v>20.20357452267726</v>
+        <v>358.5685041020515</v>
       </c>
       <c r="F28" t="n">
-        <v>20.20357452267726</v>
+        <v>358.5685041020515</v>
       </c>
       <c r="G28" t="n">
-        <v>20.20357452267726</v>
+        <v>298.1917446917723</v>
       </c>
       <c r="H28" t="n">
-        <v>20.20357452267726</v>
+        <v>144.1146630265733</v>
       </c>
       <c r="I28" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="J28" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="K28" t="n">
-        <v>123.5256118488361</v>
+        <v>100.6026403967952</v>
       </c>
       <c r="L28" t="n">
-        <v>311.2686816968687</v>
+        <v>288.3457102448279</v>
       </c>
       <c r="M28" t="n">
-        <v>519.6065484253286</v>
+        <v>496.6835769732878</v>
       </c>
       <c r="N28" t="n">
-        <v>728.4252227628673</v>
+        <v>705.5022513108265</v>
       </c>
       <c r="O28" t="n">
-        <v>905.2867712809323</v>
+        <v>882.3637998288914</v>
       </c>
       <c r="P28" t="n">
         <v>1010.178726133863</v>
@@ -6417,19 +6417,19 @@
         <v>1010.178726133863</v>
       </c>
       <c r="U28" t="n">
-        <v>755.0830882212712</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="V28" t="n">
-        <v>500.3986000153843</v>
+        <v>755.4942379279757</v>
       </c>
       <c r="W28" t="n">
-        <v>245.3029621027927</v>
+        <v>755.4942379279757</v>
       </c>
       <c r="X28" t="n">
-        <v>20.20357452267726</v>
+        <v>527.5046870299584</v>
       </c>
       <c r="Y28" t="n">
-        <v>20.20357452267726</v>
+        <v>527.5046870299584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>530.3948503478604</v>
+        <v>530.3948503478606</v>
       </c>
       <c r="C29" t="n">
-        <v>275.2992124352688</v>
+        <v>530.3948503478606</v>
       </c>
       <c r="D29" t="n">
-        <v>275.2992124352688</v>
+        <v>530.3948503478606</v>
       </c>
       <c r="E29" t="n">
-        <v>275.2992124352688</v>
+        <v>530.3948503478606</v>
       </c>
       <c r="F29" t="n">
-        <v>20.20357452267725</v>
+        <v>275.2992124352689</v>
       </c>
       <c r="G29" t="n">
-        <v>20.20357452267725</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="H29" t="n">
-        <v>20.20357452267725</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="I29" t="n">
-        <v>20.20357452267725</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="J29" t="n">
-        <v>45.14139246873057</v>
+        <v>45.14139246873049</v>
       </c>
       <c r="K29" t="n">
         <v>133.255235353424</v>
@@ -6472,16 +6472,16 @@
         <v>279.4700108687928</v>
       </c>
       <c r="M29" t="n">
-        <v>473.8315586448683</v>
+        <v>473.8315586448688</v>
       </c>
       <c r="N29" t="n">
-        <v>675.9518878415361</v>
+        <v>675.9518878415365</v>
       </c>
       <c r="O29" t="n">
-        <v>853.4731219967458</v>
+        <v>853.4731219967462</v>
       </c>
       <c r="P29" t="n">
-        <v>970.4823873903554</v>
+        <v>970.4823873903558</v>
       </c>
       <c r="Q29" t="n">
         <v>1010.178726133863</v>
@@ -6496,19 +6496,19 @@
         <v>1010.178726133863</v>
       </c>
       <c r="U29" t="n">
-        <v>1010.178726133863</v>
+        <v>785.4904882604523</v>
       </c>
       <c r="V29" t="n">
-        <v>1010.178726133863</v>
+        <v>785.4904882604523</v>
       </c>
       <c r="W29" t="n">
-        <v>1010.178726133863</v>
+        <v>530.3948503478606</v>
       </c>
       <c r="X29" t="n">
-        <v>1010.178726133863</v>
+        <v>530.3948503478606</v>
       </c>
       <c r="Y29" t="n">
-        <v>755.0830882212711</v>
+        <v>530.3948503478606</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.20357452267725</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="C30" t="n">
-        <v>20.20357452267725</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="D30" t="n">
-        <v>20.20357452267725</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="E30" t="n">
-        <v>20.20357452267725</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="F30" t="n">
-        <v>20.20357452267725</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="G30" t="n">
-        <v>20.20357452267725</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="H30" t="n">
-        <v>20.20357452267725</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="I30" t="n">
-        <v>20.20357452267725</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="J30" t="n">
-        <v>20.20357452267725</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="K30" t="n">
-        <v>173.8052673245374</v>
+        <v>173.8052673245379</v>
       </c>
       <c r="L30" t="n">
-        <v>316.1042262928183</v>
+        <v>316.1042262928188</v>
       </c>
       <c r="M30" t="n">
-        <v>501.5172677727833</v>
+        <v>501.5172677727837</v>
       </c>
       <c r="N30" t="n">
-        <v>706.2462856627463</v>
+        <v>706.2462856627468</v>
       </c>
       <c r="O30" t="n">
-        <v>871.3135447731793</v>
+        <v>871.3135447731797</v>
       </c>
       <c r="P30" t="n">
-        <v>984.4615065526493</v>
+        <v>984.4615065526498</v>
       </c>
       <c r="Q30" t="n">
         <v>1010.178726133863</v>
       </c>
       <c r="R30" t="n">
-        <v>990.5458474502796</v>
+        <v>990.54584745028</v>
       </c>
       <c r="S30" t="n">
-        <v>990.5458474502796</v>
+        <v>990.54584745028</v>
       </c>
       <c r="T30" t="n">
-        <v>990.5458474502796</v>
+        <v>990.54584745028</v>
       </c>
       <c r="U30" t="n">
-        <v>762.4086271636008</v>
+        <v>762.4086271636013</v>
       </c>
       <c r="V30" t="n">
-        <v>527.2565189318582</v>
+        <v>527.2565189318586</v>
       </c>
       <c r="W30" t="n">
-        <v>273.0191622036565</v>
+        <v>273.019162203657</v>
       </c>
       <c r="X30" t="n">
-        <v>65.16766199812372</v>
+        <v>65.16766199812417</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.20357452267725</v>
+        <v>20.20357452267726</v>
       </c>
     </row>
     <row r="31">
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.66620391775174</v>
+        <v>529.5392226936228</v>
       </c>
       <c r="C31" t="n">
-        <v>36.66620391775174</v>
+        <v>360.6030397657159</v>
       </c>
       <c r="D31" t="n">
-        <v>36.66620391775174</v>
+        <v>210.4864003533802</v>
       </c>
       <c r="E31" t="n">
-        <v>36.66620391775174</v>
+        <v>210.4864003533802</v>
       </c>
       <c r="F31" t="n">
-        <v>36.66620391775174</v>
+        <v>63.59645285546986</v>
       </c>
       <c r="G31" t="n">
-        <v>36.66620391775174</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="H31" t="n">
-        <v>36.66620391775174</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="I31" t="n">
-        <v>36.66620391775174</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="J31" t="n">
-        <v>20.20357452267725</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="K31" t="n">
-        <v>100.6026403967952</v>
+        <v>95.54529074904249</v>
       </c>
       <c r="L31" t="n">
-        <v>288.3457102448279</v>
+        <v>283.2883605970752</v>
       </c>
       <c r="M31" t="n">
-        <v>496.6835769732878</v>
+        <v>491.6262273255351</v>
       </c>
       <c r="N31" t="n">
-        <v>705.5022513108265</v>
+        <v>700.4449016630738</v>
       </c>
       <c r="O31" t="n">
-        <v>882.3637998288914</v>
+        <v>877.3064501811386</v>
       </c>
       <c r="P31" t="n">
-        <v>1010.178726133863</v>
+        <v>1005.12137648611</v>
       </c>
       <c r="Q31" t="n">
         <v>1010.178726133863</v>
@@ -6651,22 +6651,22 @@
         <v>1010.178726133863</v>
       </c>
       <c r="T31" t="n">
-        <v>784.634860606214</v>
+        <v>784.6348606062145</v>
       </c>
       <c r="U31" t="n">
-        <v>529.5392226936225</v>
+        <v>784.6348606062145</v>
       </c>
       <c r="V31" t="n">
-        <v>274.8547344877356</v>
+        <v>784.6348606062145</v>
       </c>
       <c r="W31" t="n">
-        <v>36.66620391775174</v>
+        <v>529.5392226936228</v>
       </c>
       <c r="X31" t="n">
-        <v>36.66620391775174</v>
+        <v>529.5392226936228</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.66620391775174</v>
+        <v>529.5392226936228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>785.4904882604521</v>
+        <v>499.9874503086795</v>
       </c>
       <c r="C32" t="n">
-        <v>785.4904882604521</v>
+        <v>499.9874503086795</v>
       </c>
       <c r="D32" t="n">
-        <v>785.4904882604521</v>
+        <v>244.8918123960879</v>
       </c>
       <c r="E32" t="n">
-        <v>530.3948503478605</v>
+        <v>244.8918123960879</v>
       </c>
       <c r="F32" t="n">
-        <v>275.2992124352689</v>
+        <v>138.18010331978</v>
       </c>
       <c r="G32" t="n">
-        <v>275.2992124352689</v>
+        <v>138.18010331978</v>
       </c>
       <c r="H32" t="n">
-        <v>20.20357452267726</v>
+        <v>138.18010331978</v>
       </c>
       <c r="I32" t="n">
         <v>20.20357452267726</v>
@@ -6736,16 +6736,16 @@
         <v>1010.178726133863</v>
       </c>
       <c r="V32" t="n">
-        <v>785.4904882604521</v>
+        <v>755.0830882212712</v>
       </c>
       <c r="W32" t="n">
-        <v>785.4904882604521</v>
+        <v>499.9874503086795</v>
       </c>
       <c r="X32" t="n">
-        <v>785.4904882604521</v>
+        <v>499.9874503086795</v>
       </c>
       <c r="Y32" t="n">
-        <v>785.4904882604521</v>
+        <v>499.9874503086795</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>313.0289624089646</v>
+        <v>166.7381324957923</v>
       </c>
       <c r="C33" t="n">
-        <v>138.5759331278375</v>
+        <v>166.7381324957923</v>
       </c>
       <c r="D33" t="n">
-        <v>138.5759331278375</v>
+        <v>166.7381324957923</v>
       </c>
       <c r="E33" t="n">
-        <v>120.8894871014433</v>
+        <v>166.7381324957923</v>
       </c>
       <c r="F33" t="n">
-        <v>120.8894871014433</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="G33" t="n">
-        <v>120.8894871014433</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="H33" t="n">
         <v>20.20357452267726</v>
@@ -6779,19 +6779,19 @@
         <v>20.20357452267726</v>
       </c>
       <c r="J33" t="n">
-        <v>20.20357452267726</v>
+        <v>102.4273504550116</v>
       </c>
       <c r="K33" t="n">
-        <v>91.58149139220328</v>
+        <v>173.8052673245376</v>
       </c>
       <c r="L33" t="n">
-        <v>233.8804503604842</v>
+        <v>316.1042262928186</v>
       </c>
       <c r="M33" t="n">
-        <v>419.2934918404492</v>
+        <v>501.5172677727835</v>
       </c>
       <c r="N33" t="n">
-        <v>624.0225097304123</v>
+        <v>706.2462856627466</v>
       </c>
       <c r="O33" t="n">
         <v>871.3135447731795</v>
@@ -6803,28 +6803,28 @@
         <v>1010.178726133863</v>
       </c>
       <c r="R33" t="n">
-        <v>1010.178726133863</v>
+        <v>990.5458474502798</v>
       </c>
       <c r="S33" t="n">
-        <v>1010.178726133863</v>
+        <v>841.5215317214879</v>
       </c>
       <c r="T33" t="n">
-        <v>1010.178726133863</v>
+        <v>644.6282531336367</v>
       </c>
       <c r="U33" t="n">
-        <v>1010.178726133863</v>
+        <v>644.6282531336367</v>
       </c>
       <c r="V33" t="n">
-        <v>775.0266179021201</v>
+        <v>420.9754892239939</v>
       </c>
       <c r="W33" t="n">
-        <v>520.7892611739185</v>
+        <v>166.7381324957923</v>
       </c>
       <c r="X33" t="n">
-        <v>520.7892611739185</v>
+        <v>166.7381324957923</v>
       </c>
       <c r="Y33" t="n">
-        <v>313.0289624089646</v>
+        <v>166.7381324957923</v>
       </c>
     </row>
     <row r="34">
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>499.9874503086795</v>
+        <v>465.1232550153164</v>
       </c>
       <c r="C34" t="n">
-        <v>499.9874503086795</v>
+        <v>465.1232550153164</v>
       </c>
       <c r="D34" t="n">
-        <v>499.9874503086795</v>
+        <v>315.0066156029807</v>
       </c>
       <c r="E34" t="n">
-        <v>352.1430252977287</v>
+        <v>167.0935220205876</v>
       </c>
       <c r="F34" t="n">
-        <v>205.2530777998183</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="G34" t="n">
-        <v>36.66620391775174</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="H34" t="n">
-        <v>36.66620391775174</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="I34" t="n">
-        <v>36.66620391775174</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="J34" t="n">
         <v>20.20357452267726</v>
       </c>
       <c r="K34" t="n">
-        <v>95.54529074904227</v>
+        <v>123.5256118488361</v>
       </c>
       <c r="L34" t="n">
-        <v>283.2883605970749</v>
+        <v>311.2686816968687</v>
       </c>
       <c r="M34" t="n">
-        <v>491.6262273255348</v>
+        <v>519.6065484253286</v>
       </c>
       <c r="N34" t="n">
-        <v>700.4449016630736</v>
+        <v>728.4252227628673</v>
       </c>
       <c r="O34" t="n">
         <v>877.3064501811384</v>
@@ -6891,19 +6891,19 @@
         <v>1010.178726133863</v>
       </c>
       <c r="U34" t="n">
+        <v>1010.178726133863</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1010.178726133863</v>
+      </c>
+      <c r="W34" t="n">
         <v>755.0830882212712</v>
       </c>
-      <c r="V34" t="n">
-        <v>755.0830882212712</v>
-      </c>
-      <c r="W34" t="n">
-        <v>499.9874503086795</v>
-      </c>
       <c r="X34" t="n">
-        <v>499.9874503086795</v>
+        <v>685.9158341588466</v>
       </c>
       <c r="Y34" t="n">
-        <v>499.9874503086795</v>
+        <v>465.1232550153164</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>640.3732722410571</v>
+        <v>530.3948503478605</v>
       </c>
       <c r="C35" t="n">
-        <v>385.2776343284653</v>
+        <v>530.3948503478605</v>
       </c>
       <c r="D35" t="n">
-        <v>130.1819964158736</v>
+        <v>530.3948503478605</v>
       </c>
       <c r="E35" t="n">
-        <v>130.1819964158736</v>
+        <v>530.3948503478605</v>
       </c>
       <c r="F35" t="n">
-        <v>130.1819964158736</v>
+        <v>275.2992124352689</v>
       </c>
       <c r="G35" t="n">
-        <v>130.1819964158736</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="H35" t="n">
         <v>20.20357452267726</v>
@@ -6940,22 +6940,22 @@
         <v>45.14139246873049</v>
       </c>
       <c r="K35" t="n">
-        <v>133.2552353534244</v>
+        <v>133.255235353424</v>
       </c>
       <c r="L35" t="n">
-        <v>279.4700108687932</v>
+        <v>279.4700108687928</v>
       </c>
       <c r="M35" t="n">
-        <v>473.8315586448688</v>
+        <v>473.8315586448684</v>
       </c>
       <c r="N35" t="n">
-        <v>675.9518878415365</v>
+        <v>675.9518878415362</v>
       </c>
       <c r="O35" t="n">
-        <v>853.4731219967463</v>
+        <v>853.4731219967457</v>
       </c>
       <c r="P35" t="n">
-        <v>970.4823873903561</v>
+        <v>970.4823873903556</v>
       </c>
       <c r="Q35" t="n">
         <v>1010.178726133863</v>
@@ -6964,25 +6964,25 @@
         <v>1010.178726133863</v>
       </c>
       <c r="S35" t="n">
-        <v>854.9782380783536</v>
+        <v>854.9782380783531</v>
       </c>
       <c r="T35" t="n">
-        <v>640.3732722410571</v>
+        <v>854.9782380783531</v>
       </c>
       <c r="U35" t="n">
-        <v>640.3732722410571</v>
+        <v>854.9782380783531</v>
       </c>
       <c r="V35" t="n">
-        <v>640.3732722410571</v>
+        <v>599.8826001657615</v>
       </c>
       <c r="W35" t="n">
-        <v>640.3732722410571</v>
+        <v>530.3948503478605</v>
       </c>
       <c r="X35" t="n">
-        <v>640.3732722410571</v>
+        <v>530.3948503478605</v>
       </c>
       <c r="Y35" t="n">
-        <v>640.3732722410571</v>
+        <v>530.3948503478605</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>713.0134859092793</v>
+        <v>371.1998751141589</v>
       </c>
       <c r="C36" t="n">
-        <v>713.0134859092793</v>
+        <v>196.7468458330319</v>
       </c>
       <c r="D36" t="n">
-        <v>564.0790762480281</v>
+        <v>166.7381324957923</v>
       </c>
       <c r="E36" t="n">
-        <v>404.8416212425725</v>
+        <v>166.7381324957923</v>
       </c>
       <c r="F36" t="n">
-        <v>258.3070632694575</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="G36" t="n">
-        <v>120.8894871014433</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="H36" t="n">
         <v>20.20357452267726</v>
@@ -7016,52 +7016,52 @@
         <v>20.20357452267726</v>
       </c>
       <c r="J36" t="n">
-        <v>102.4273504550121</v>
+        <v>102.4273504550116</v>
       </c>
       <c r="K36" t="n">
-        <v>173.8052673245381</v>
+        <v>173.8052673245376</v>
       </c>
       <c r="L36" t="n">
-        <v>316.104226292819</v>
+        <v>316.1042262928186</v>
       </c>
       <c r="M36" t="n">
-        <v>501.517267772784</v>
+        <v>501.5172677727835</v>
       </c>
       <c r="N36" t="n">
-        <v>706.246285662747</v>
+        <v>706.2462856627466</v>
       </c>
       <c r="O36" t="n">
-        <v>871.31354477318</v>
+        <v>871.3135447731795</v>
       </c>
       <c r="P36" t="n">
-        <v>984.46150655265</v>
+        <v>984.4615065526496</v>
       </c>
       <c r="Q36" t="n">
         <v>1010.178726133863</v>
       </c>
       <c r="R36" t="n">
-        <v>990.5458474502802</v>
+        <v>990.5458474502798</v>
       </c>
       <c r="S36" t="n">
-        <v>990.5458474502802</v>
+        <v>990.5458474502798</v>
       </c>
       <c r="T36" t="n">
-        <v>990.5458474502802</v>
+        <v>793.6525688624286</v>
       </c>
       <c r="U36" t="n">
-        <v>967.2508426374809</v>
+        <v>793.6525688624286</v>
       </c>
       <c r="V36" t="n">
-        <v>967.2508426374809</v>
+        <v>793.6525688624286</v>
       </c>
       <c r="W36" t="n">
-        <v>713.0134859092793</v>
+        <v>539.415212134227</v>
       </c>
       <c r="X36" t="n">
-        <v>713.0134859092793</v>
+        <v>539.415212134227</v>
       </c>
       <c r="Y36" t="n">
-        <v>713.0134859092793</v>
+        <v>539.415212134227</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>245.3029621027929</v>
+        <v>188.7904484047438</v>
       </c>
       <c r="C37" t="n">
-        <v>245.3029621027929</v>
+        <v>188.7904484047438</v>
       </c>
       <c r="D37" t="n">
-        <v>245.3029621027929</v>
+        <v>188.7904484047438</v>
       </c>
       <c r="E37" t="n">
-        <v>245.3029621027929</v>
+        <v>188.7904484047438</v>
       </c>
       <c r="F37" t="n">
-        <v>144.1146630265733</v>
+        <v>188.7904484047438</v>
       </c>
       <c r="G37" t="n">
-        <v>144.1146630265733</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="H37" t="n">
-        <v>144.1146630265733</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="I37" t="n">
         <v>20.20357452267726</v>
@@ -7098,19 +7098,19 @@
         <v>20.20357452267726</v>
       </c>
       <c r="K37" t="n">
-        <v>95.54529074904272</v>
+        <v>95.54529074904227</v>
       </c>
       <c r="L37" t="n">
-        <v>283.2883605970754</v>
+        <v>283.2883605970749</v>
       </c>
       <c r="M37" t="n">
-        <v>491.6262273255353</v>
+        <v>491.6262273255348</v>
       </c>
       <c r="N37" t="n">
-        <v>700.444901663074</v>
+        <v>700.4449016630736</v>
       </c>
       <c r="O37" t="n">
-        <v>877.3064501811389</v>
+        <v>877.3064501811384</v>
       </c>
       <c r="P37" t="n">
         <v>1005.12137648611</v>
@@ -7122,25 +7122,25 @@
         <v>1010.178726133863</v>
       </c>
       <c r="S37" t="n">
-        <v>1010.178726133863</v>
+        <v>919.7743033734572</v>
       </c>
       <c r="T37" t="n">
-        <v>1010.178726133863</v>
+        <v>919.7743033734572</v>
       </c>
       <c r="U37" t="n">
-        <v>755.0830882212715</v>
+        <v>664.6786654608655</v>
       </c>
       <c r="V37" t="n">
-        <v>500.3986000153847</v>
+        <v>664.6786654608655</v>
       </c>
       <c r="W37" t="n">
-        <v>245.3029621027929</v>
+        <v>409.5830275482739</v>
       </c>
       <c r="X37" t="n">
-        <v>245.3029621027929</v>
+        <v>409.5830275482739</v>
       </c>
       <c r="Y37" t="n">
-        <v>245.3029621027929</v>
+        <v>188.7904484047438</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>286.7899809044767</v>
+        <v>755.0830882212711</v>
       </c>
       <c r="C38" t="n">
-        <v>286.7899809044767</v>
+        <v>530.3948503478604</v>
       </c>
       <c r="D38" t="n">
-        <v>286.7899809044767</v>
+        <v>530.3948503478604</v>
       </c>
       <c r="E38" t="n">
-        <v>286.7899809044767</v>
+        <v>530.3948503478604</v>
       </c>
       <c r="F38" t="n">
-        <v>286.7899809044767</v>
+        <v>275.2992124352688</v>
       </c>
       <c r="G38" t="n">
-        <v>286.7899809044767</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="H38" t="n">
-        <v>31.69434299188507</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="I38" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="J38" t="n">
         <v>45.14139246873057</v>
@@ -7183,16 +7183,16 @@
         <v>279.4700108687929</v>
       </c>
       <c r="M38" t="n">
-        <v>473.8315586448684</v>
+        <v>473.8315586448683</v>
       </c>
       <c r="N38" t="n">
-        <v>675.9518878415362</v>
+        <v>675.9518878415361</v>
       </c>
       <c r="O38" t="n">
         <v>853.4731219967457</v>
       </c>
       <c r="P38" t="n">
-        <v>970.4823873903556</v>
+        <v>970.4823873903554</v>
       </c>
       <c r="Q38" t="n">
         <v>1010.178726133863</v>
@@ -7204,22 +7204,22 @@
         <v>1010.178726133863</v>
       </c>
       <c r="T38" t="n">
-        <v>795.5737602965664</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="U38" t="n">
-        <v>541.8856188170683</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="V38" t="n">
-        <v>286.7899809044767</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="W38" t="n">
-        <v>286.7899809044767</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="X38" t="n">
-        <v>286.7899809044767</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="Y38" t="n">
-        <v>286.7899809044767</v>
+        <v>1010.178726133863</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>65.16766199812395</v>
+        <v>404.8416212425725</v>
       </c>
       <c r="C39" t="n">
-        <v>20.20357452267726</v>
+        <v>404.8416212425725</v>
       </c>
       <c r="D39" t="n">
-        <v>20.20357452267726</v>
+        <v>404.8416212425725</v>
       </c>
       <c r="E39" t="n">
-        <v>20.20357452267726</v>
+        <v>404.8416212425725</v>
       </c>
       <c r="F39" t="n">
-        <v>20.20357452267726</v>
+        <v>258.3070632694575</v>
       </c>
       <c r="G39" t="n">
-        <v>20.20357452267726</v>
+        <v>120.8894871014433</v>
       </c>
       <c r="H39" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="I39" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="J39" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="K39" t="n">
         <v>91.58149139220328</v>
@@ -7277,28 +7277,28 @@
         <v>1010.178726133863</v>
       </c>
       <c r="R39" t="n">
-        <v>990.5458474502798</v>
+        <v>990.5458474502796</v>
       </c>
       <c r="S39" t="n">
-        <v>990.5458474502798</v>
+        <v>841.5215317214877</v>
       </c>
       <c r="T39" t="n">
-        <v>990.5458474502798</v>
+        <v>841.5215317214877</v>
       </c>
       <c r="U39" t="n">
-        <v>762.4086271636011</v>
+        <v>841.5215317214877</v>
       </c>
       <c r="V39" t="n">
-        <v>527.2565189318584</v>
+        <v>659.0789779707741</v>
       </c>
       <c r="W39" t="n">
-        <v>273.0191622036568</v>
+        <v>404.8416212425725</v>
       </c>
       <c r="X39" t="n">
-        <v>65.16766199812395</v>
+        <v>404.8416212425725</v>
       </c>
       <c r="Y39" t="n">
-        <v>65.16766199812395</v>
+        <v>404.8416212425725</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.20357452267726</v>
+        <v>828.5302613036229</v>
       </c>
       <c r="C40" t="n">
-        <v>20.20357452267726</v>
+        <v>659.594078375716</v>
       </c>
       <c r="D40" t="n">
-        <v>20.20357452267726</v>
+        <v>509.4774389633802</v>
       </c>
       <c r="E40" t="n">
-        <v>20.20357452267726</v>
+        <v>361.5643453809871</v>
       </c>
       <c r="F40" t="n">
-        <v>20.20357452267726</v>
+        <v>342.8675300699429</v>
       </c>
       <c r="G40" t="n">
-        <v>20.20357452267726</v>
+        <v>174.2806561878763</v>
       </c>
       <c r="H40" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="I40" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="J40" t="n">
-        <v>20.20357452267726</v>
+        <v>20.20357452267725</v>
       </c>
       <c r="K40" t="n">
         <v>123.5256118488361</v>
@@ -7350,7 +7350,7 @@
         <v>905.2867712809323</v>
       </c>
       <c r="P40" t="n">
-        <v>1010.178726133863</v>
+        <v>1005.121376486109</v>
       </c>
       <c r="Q40" t="n">
         <v>1010.178726133863</v>
@@ -7365,19 +7365,19 @@
         <v>1010.178726133863</v>
       </c>
       <c r="U40" t="n">
-        <v>755.0830882212712</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="V40" t="n">
-        <v>500.3986000153843</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="W40" t="n">
-        <v>245.3029621027927</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="X40" t="n">
-        <v>20.20357452267726</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.20357452267726</v>
+        <v>1010.178726133863</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>640.3732722410566</v>
+        <v>285.3824844713833</v>
       </c>
       <c r="C41" t="n">
-        <v>640.3732722410566</v>
+        <v>285.3824844713833</v>
       </c>
       <c r="D41" t="n">
-        <v>530.3948503478605</v>
+        <v>285.3824844713833</v>
       </c>
       <c r="E41" t="n">
-        <v>530.3948503478605</v>
+        <v>285.3824844713833</v>
       </c>
       <c r="F41" t="n">
-        <v>530.3948503478605</v>
+        <v>285.3824844713833</v>
       </c>
       <c r="G41" t="n">
-        <v>275.2992124352689</v>
+        <v>30.28684655879161</v>
       </c>
       <c r="H41" t="n">
-        <v>20.20357452267726</v>
+        <v>30.28684655879161</v>
       </c>
       <c r="I41" t="n">
         <v>20.20357452267726</v>
       </c>
       <c r="J41" t="n">
-        <v>45.1413924687306</v>
+        <v>45.14139246873049</v>
       </c>
       <c r="K41" t="n">
-        <v>133.255235353424</v>
+        <v>133.2552353534244</v>
       </c>
       <c r="L41" t="n">
-        <v>279.4700108687929</v>
+        <v>279.4700108687932</v>
       </c>
       <c r="M41" t="n">
-        <v>473.8315586448686</v>
+        <v>473.8315586448688</v>
       </c>
       <c r="N41" t="n">
-        <v>675.9518878415362</v>
+        <v>675.9518878415365</v>
       </c>
       <c r="O41" t="n">
-        <v>853.4731219967459</v>
+        <v>853.4731219967463</v>
       </c>
       <c r="P41" t="n">
-        <v>970.4823873903556</v>
+        <v>970.4823873903561</v>
       </c>
       <c r="Q41" t="n">
         <v>1010.178726133863</v>
@@ -7438,25 +7438,25 @@
         <v>1010.178726133863</v>
       </c>
       <c r="S41" t="n">
-        <v>854.9782380783531</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="T41" t="n">
-        <v>640.3732722410566</v>
+        <v>795.5737602965669</v>
       </c>
       <c r="U41" t="n">
-        <v>640.3732722410566</v>
+        <v>795.5737602965669</v>
       </c>
       <c r="V41" t="n">
-        <v>640.3732722410566</v>
+        <v>795.5737602965669</v>
       </c>
       <c r="W41" t="n">
-        <v>640.3732722410566</v>
+        <v>795.5737602965669</v>
       </c>
       <c r="X41" t="n">
-        <v>640.3732722410566</v>
+        <v>795.5737602965669</v>
       </c>
       <c r="Y41" t="n">
-        <v>640.3732722410566</v>
+        <v>540.4781223839751</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>20.20357452267726</v>
       </c>
       <c r="J42" t="n">
-        <v>102.4273504550116</v>
+        <v>102.4273504550121</v>
       </c>
       <c r="K42" t="n">
-        <v>173.8052673245376</v>
+        <v>173.8052673245381</v>
       </c>
       <c r="L42" t="n">
-        <v>316.1042262928186</v>
+        <v>316.104226292819</v>
       </c>
       <c r="M42" t="n">
-        <v>501.5172677727835</v>
+        <v>501.517267772784</v>
       </c>
       <c r="N42" t="n">
-        <v>706.2462856627466</v>
+        <v>706.246285662747</v>
       </c>
       <c r="O42" t="n">
-        <v>871.3135447731795</v>
+        <v>871.31354477318</v>
       </c>
       <c r="P42" t="n">
-        <v>984.4615065526496</v>
+        <v>984.46150655265</v>
       </c>
       <c r="Q42" t="n">
         <v>1010.178726133863</v>
@@ -7523,16 +7523,16 @@
         <v>1010.178726133863</v>
       </c>
       <c r="U42" t="n">
-        <v>782.0415058471841</v>
+        <v>782.0415058471846</v>
       </c>
       <c r="V42" t="n">
-        <v>546.8893976154413</v>
+        <v>546.8893976154418</v>
       </c>
       <c r="W42" t="n">
-        <v>292.6520408872397</v>
+        <v>292.6520408872402</v>
       </c>
       <c r="X42" t="n">
-        <v>84.80054068170688</v>
+        <v>84.80054068170733</v>
       </c>
       <c r="Y42" t="n">
         <v>20.20357452267726</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>342.8675300699429</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="C43" t="n">
-        <v>342.8675300699429</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="D43" t="n">
-        <v>342.8675300699429</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="E43" t="n">
-        <v>342.8675300699429</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="F43" t="n">
-        <v>342.8675300699429</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="G43" t="n">
-        <v>174.2806561878763</v>
+        <v>20.20357452267726</v>
       </c>
       <c r="H43" t="n">
         <v>20.20357452267726</v>
@@ -7572,22 +7572,22 @@
         <v>20.20357452267726</v>
       </c>
       <c r="K43" t="n">
-        <v>100.6026403967955</v>
+        <v>95.54529074904272</v>
       </c>
       <c r="L43" t="n">
-        <v>288.3457102448281</v>
+        <v>283.2883605970754</v>
       </c>
       <c r="M43" t="n">
-        <v>496.683576973288</v>
+        <v>491.6262273255353</v>
       </c>
       <c r="N43" t="n">
-        <v>705.5022513108268</v>
+        <v>700.444901663074</v>
       </c>
       <c r="O43" t="n">
-        <v>882.3637998288916</v>
+        <v>877.3064501811389</v>
       </c>
       <c r="P43" t="n">
-        <v>1010.178726133863</v>
+        <v>1005.12137648611</v>
       </c>
       <c r="Q43" t="n">
         <v>1010.178726133863</v>
@@ -7596,25 +7596,25 @@
         <v>1010.178726133863</v>
       </c>
       <c r="S43" t="n">
-        <v>803.0864835856175</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="T43" t="n">
-        <v>577.5426180579691</v>
+        <v>784.6348606062147</v>
       </c>
       <c r="U43" t="n">
-        <v>342.8675300699429</v>
+        <v>529.5392226936229</v>
       </c>
       <c r="V43" t="n">
-        <v>342.8675300699429</v>
+        <v>529.5392226936229</v>
       </c>
       <c r="W43" t="n">
-        <v>342.8675300699429</v>
+        <v>274.4435847810312</v>
       </c>
       <c r="X43" t="n">
-        <v>342.8675300699429</v>
+        <v>46.45403388301384</v>
       </c>
       <c r="Y43" t="n">
-        <v>342.8675300699429</v>
+        <v>46.45403388301384</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>499.9874503086795</v>
+        <v>530.3948503478604</v>
       </c>
       <c r="C44" t="n">
+        <v>530.3948503478604</v>
+      </c>
+      <c r="D44" t="n">
+        <v>530.3948503478604</v>
+      </c>
+      <c r="E44" t="n">
         <v>275.2992124352688</v>
-      </c>
-      <c r="D44" t="n">
-        <v>275.2992124352688</v>
-      </c>
-      <c r="E44" t="n">
-        <v>20.20357452267725</v>
       </c>
       <c r="F44" t="n">
         <v>20.20357452267725</v>
@@ -7681,19 +7681,19 @@
         <v>1010.178726133863</v>
       </c>
       <c r="U44" t="n">
-        <v>1010.178726133863</v>
+        <v>785.4904882604519</v>
       </c>
       <c r="V44" t="n">
-        <v>1010.178726133863</v>
+        <v>785.4904882604519</v>
       </c>
       <c r="W44" t="n">
-        <v>1010.178726133863</v>
+        <v>785.4904882604519</v>
       </c>
       <c r="X44" t="n">
-        <v>1010.178726133863</v>
+        <v>785.4904882604519</v>
       </c>
       <c r="Y44" t="n">
-        <v>755.0830882212711</v>
+        <v>530.3948503478604</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>436.7767529281036</v>
+        <v>65.16766199812372</v>
       </c>
       <c r="C45" t="n">
-        <v>262.3237236469766</v>
+        <v>65.16766199812372</v>
       </c>
       <c r="D45" t="n">
-        <v>262.3237236469766</v>
+        <v>65.16766199812372</v>
       </c>
       <c r="E45" t="n">
-        <v>103.0862686415211</v>
+        <v>65.16766199812372</v>
       </c>
       <c r="F45" t="n">
-        <v>103.0862686415211</v>
+        <v>65.16766199812372</v>
       </c>
       <c r="G45" t="n">
         <v>20.20357452267725</v>
@@ -7754,25 +7754,25 @@
         <v>990.5458474502796</v>
       </c>
       <c r="S45" t="n">
-        <v>841.5215317214877</v>
+        <v>990.5458474502796</v>
       </c>
       <c r="T45" t="n">
-        <v>644.6282531336365</v>
+        <v>990.5458474502796</v>
       </c>
       <c r="U45" t="n">
-        <v>644.6282531336365</v>
+        <v>762.4086271636008</v>
       </c>
       <c r="V45" t="n">
-        <v>644.6282531336365</v>
+        <v>527.2565189318582</v>
       </c>
       <c r="W45" t="n">
-        <v>644.6282531336365</v>
+        <v>273.0191622036565</v>
       </c>
       <c r="X45" t="n">
-        <v>436.7767529281036</v>
+        <v>65.16766199812372</v>
       </c>
       <c r="Y45" t="n">
-        <v>436.7767529281036</v>
+        <v>65.16766199812372</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>483.9427985308877</v>
+        <v>188.7904484047438</v>
       </c>
       <c r="C46" t="n">
-        <v>315.0066156029807</v>
+        <v>188.7904484047438</v>
       </c>
       <c r="D46" t="n">
-        <v>315.0066156029807</v>
+        <v>188.7904484047438</v>
       </c>
       <c r="E46" t="n">
-        <v>167.0935220205876</v>
+        <v>188.7904484047438</v>
       </c>
       <c r="F46" t="n">
-        <v>20.20357452267725</v>
+        <v>188.7904484047438</v>
       </c>
       <c r="G46" t="n">
         <v>20.20357452267725</v>
@@ -7809,10 +7809,10 @@
         <v>20.20357452267725</v>
       </c>
       <c r="K46" t="n">
-        <v>95.54529074904204</v>
+        <v>123.5256118488361</v>
       </c>
       <c r="L46" t="n">
-        <v>283.2883605970747</v>
+        <v>311.2686816968687</v>
       </c>
       <c r="M46" t="n">
         <v>491.6262273255346</v>
@@ -7833,25 +7833,25 @@
         <v>1010.178726133863</v>
       </c>
       <c r="S46" t="n">
-        <v>803.0864835856173</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="T46" t="n">
-        <v>577.5426180579689</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="U46" t="n">
-        <v>483.9427985308877</v>
+        <v>1010.178726133863</v>
       </c>
       <c r="V46" t="n">
-        <v>483.9427985308877</v>
+        <v>755.4942379279757</v>
       </c>
       <c r="W46" t="n">
-        <v>483.9427985308877</v>
+        <v>591.2314923785136</v>
       </c>
       <c r="X46" t="n">
-        <v>483.9427985308877</v>
+        <v>591.2314923785136</v>
       </c>
       <c r="Y46" t="n">
-        <v>483.9427985308877</v>
+        <v>370.4389132349835</v>
       </c>
     </row>
   </sheetData>
@@ -8853,13 +8853,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>162.4747015415544</v>
+        <v>152.8089368603735</v>
       </c>
       <c r="M13" t="n">
-        <v>154.1946371899305</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -9093,16 +9093,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>171.4142040457084</v>
+        <v>153.3759016847017</v>
       </c>
       <c r="N16" t="n">
-        <v>163.8604018711117</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O16" t="n">
-        <v>98.86065188594071</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>18.10760906709386</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9327,19 +9327,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>171.4142040457084</v>
+        <v>152.8089368603737</v>
       </c>
       <c r="N19" t="n">
         <v>163.8604018711116</v>
       </c>
       <c r="O19" t="n">
-        <v>98.86065188594071</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P19" t="n">
-        <v>18.10760906709386</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>152.8089368603741</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N22" t="n">
-        <v>163.8604018711117</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777612</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>87.05942359779159</v>
+        <v>87.05942359779137</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>83.58924972642944</v>
       </c>
       <c r="L25" t="n">
         <v>162.4747015415544</v>
@@ -9813,7 +9813,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
-        <v>111.8520466958182</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
         <v>60.23452439012192</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>87.05942359779159</v>
+        <v>87.05942359779137</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>83.58924972642944</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
@@ -10050,7 +10050,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>111.8520466958182</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
         <v>60.23452439012192</v>
@@ -10193,7 +10193,7 @@
         <v>4.00510447422154</v>
       </c>
       <c r="K30" t="n">
-        <v>83.05431912356983</v>
+        <v>83.05431912357028</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>83.58924972642944</v>
+        <v>78.48081573880042</v>
       </c>
       <c r="L31" t="n">
         <v>162.4747015415544</v>
@@ -10290,7 +10290,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.23452439012192</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>4.00510447422154</v>
+        <v>87.05942359779159</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>83.05431912357002</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>78.48081573880017</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
         <v>162.4747015415544</v>
@@ -10521,7 +10521,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>134.7787157600301</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>87.05942359779205</v>
+        <v>87.05942359779159</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10746,7 +10746,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>78.48081573880064</v>
+        <v>78.48081573880017</v>
       </c>
       <c r="L37" t="n">
         <v>162.4747015415544</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>83.05431912357002</v>
+        <v>83.0543191235698</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10998,10 +10998,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>111.8520466958182</v>
+        <v>106.7436127081885</v>
       </c>
       <c r="Q40" t="n">
-        <v>60.23452439012192</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>87.05942359779159</v>
+        <v>87.05942359779205</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>83.58924972642967</v>
+        <v>78.48081573880064</v>
       </c>
       <c r="L43" t="n">
         <v>162.4747015415544</v>
@@ -11238,7 +11238,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.23452439012192</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11457,13 +11457,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>78.48081573879995</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>178.5096609094456</v>
+        <v>150.2467103035931</v>
       </c>
       <c r="N46" t="n">
         <v>171.8177168444618</v>
@@ -23266,10 +23266,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>375.5336460862207</v>
       </c>
       <c r="F11" t="n">
-        <v>219.3504585753918</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>225.5722460637384</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S11" t="n">
-        <v>4.968575157640373</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>25.91829388988714</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871069</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23336,22 +23336,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H12" t="n">
         <v>100.8417573507397</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>26.91122581714242</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>17.23219698956171</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T12" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377129</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310563</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>113.4336718019678</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715784</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.343082173845843</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917659</v>
       </c>
       <c r="T13" t="n">
-        <v>204.981098960575</v>
+        <v>194.7125880985422</v>
       </c>
       <c r="U13" t="n">
-        <v>98.73949432713064</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V13" t="n">
         <v>64.61205615750836</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G14" t="n">
         <v>413.097833230058</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.968575157639798</v>
+        <v>4.96857515763991</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>25.91829388988683</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U14" t="n">
-        <v>63.64367339871038</v>
+        <v>63.64367339871046</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23576,19 +23576,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>7.535961812221217</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.1637893657753</v>
+        <v>102.8911687985261</v>
       </c>
       <c r="H15" t="n">
         <v>100.8417573507397</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>149.7702446909496</v>
@@ -23633,16 +23633,16 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V15" t="n">
-        <v>45.27499998310532</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X15" t="n">
-        <v>18.24739803715752</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.15710861098441</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>125.7072197708667</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R16" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S16" t="n">
-        <v>19.25466862917628</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T16" t="n">
-        <v>36.19408632378014</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U16" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V16" t="n">
-        <v>64.61205615750805</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>124.6935433343423</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>158.3497619921396</v>
       </c>
     </row>
     <row r="17">
@@ -23734,10 +23734,10 @@
         <v>195.2082544971607</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D17" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,7 +23746,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H17" t="n">
         <v>316.8938261062223</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.96857515763991</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>4.968575157639975</v>
       </c>
       <c r="T17" t="n">
         <v>213.4438810562068</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23861,25 +23861,25 @@
         <v>26.91122581714238</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T18" t="n">
-        <v>7.884010625681356</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>67.6280499733308</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>154.561201023876</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098449</v>
       </c>
     </row>
     <row r="19">
@@ -23892,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,13 +23907,13 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H19" t="n">
-        <v>17.03093086488718</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J19" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23943,16 +23943,16 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T19" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378023</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2650814934503</v>
+        <v>147.8693847967324</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750814</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027114</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,19 +23974,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>167.1574544543629</v>
+        <v>348.2863176346415</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G20" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H20" t="n">
-        <v>129.3682389399023</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I20" t="n">
         <v>125.4713171199747</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>30.88686904752663</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U20" t="n">
         <v>251.1692605650303</v>
@@ -24068,7 +24068,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I21" t="n">
-        <v>48.77881175550657</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24104,19 +24104,19 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U21" t="n">
-        <v>38.33818124377092</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V21" t="n">
-        <v>45.27499998310526</v>
+        <v>94.53927579047323</v>
       </c>
       <c r="W21" t="n">
-        <v>113.4336718019674</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>18.24739803715747</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098449</v>
       </c>
     </row>
     <row r="22">
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I22" t="n">
-        <v>16.7860449689731</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J22" t="n">
-        <v>23.43375830553084</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T22" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378023</v>
       </c>
       <c r="U22" t="n">
         <v>286.2650814934503</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271729</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>49.06159136546356</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.1891601300149</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>112.7282102375418</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>102.1383600872173</v>
@@ -24223,7 +24223,7 @@
         <v>412.872826975967</v>
       </c>
       <c r="H23" t="n">
-        <v>314.5894808065129</v>
+        <v>244.4031870180285</v>
       </c>
       <c r="I23" t="n">
         <v>116.7967635091317</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>153.6484831749546</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>212.4589161789235</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1512600647031</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>126.7996132227364</v>
+        <v>96.69628718394736</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24284,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.0434004063341</v>
       </c>
       <c r="H24" t="n">
         <v>99.67905345297832</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>14.11420998662645</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>147.5340725715039</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>194.9243458019727</v>
       </c>
       <c r="U24" t="n">
-        <v>193.8781750787198</v>
+        <v>225.8558480838119</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.9010051432459</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>152.5363108485471</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>122.6719776188571</v>
@@ -24417,19 +24417,19 @@
         <v>205.0213201227627</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.288426872372</v>
       </c>
       <c r="U25" t="n">
-        <v>33.71489468401356</v>
+        <v>286.2595762174793</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>260.1280053602202</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>207.1998082311034</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24448,16 +24448,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>102.1383600872173</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>129.3856885387961</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>154.3313642082458</v>
       </c>
       <c r="G26" t="n">
-        <v>160.3281454425013</v>
+        <v>412.872826975967</v>
       </c>
       <c r="H26" t="n">
         <v>314.5894808065129</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>153.6484831749546</v>
       </c>
       <c r="T26" t="n">
-        <v>143.6660438592015</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.1512600647031</v>
       </c>
       <c r="V26" t="n">
-        <v>75.2075769366692</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>339.2585294016599</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>133.6932571225879</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24536,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.0434004063341</v>
+        <v>18.94505481339876</v>
       </c>
       <c r="H27" t="n">
         <v>99.67905345297832</v>
@@ -24569,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>19.43654989674721</v>
       </c>
       <c r="S27" t="n">
         <v>147.5340725715039</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>194.9243458019727</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.8558480838119</v>
       </c>
       <c r="V27" t="n">
-        <v>150.4098992012805</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.9010051432459</v>
+        <v>107.1280133270695</v>
       </c>
       <c r="H28" t="n">
-        <v>152.5363108485471</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>122.6719776188571</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>16.29800310112374</v>
@@ -24657,16 +24657,16 @@
         <v>223.288426872372</v>
       </c>
       <c r="U28" t="n">
-        <v>33.71489468401356</v>
+        <v>286.2595762174793</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>33.9783168031253</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>2.861261684722876</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.292486168804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>112.7282102375419</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>154.3313642082458</v>
+        <v>154.3313642082457</v>
       </c>
       <c r="G29" t="n">
-        <v>412.872826975967</v>
+        <v>160.3281454425013</v>
       </c>
       <c r="H29" t="n">
         <v>314.5894808065129</v>
@@ -24736,19 +24736,19 @@
         <v>212.4589161789235</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1512600647031</v>
+        <v>28.70990457002637</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>96.69628718394725</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>133.6932571225879</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>161.1682491766124</v>
+        <v>161.1682491766119</v>
       </c>
     </row>
     <row r="31">
@@ -24840,19 +24840,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.9010051432459</v>
+        <v>123.9420555937812</v>
       </c>
       <c r="H31" t="n">
         <v>152.5363108485471</v>
@@ -24861,7 +24861,7 @@
         <v>122.6719776188571</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>16.29800310112374</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>33.71489468401361</v>
+        <v>286.2595762174793</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>50.71635307230696</v>
+        <v>33.97831680312524</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,22 +24922,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>102.1383600872173</v>
       </c>
       <c r="E32" t="n">
-        <v>129.3856885387961</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>154.3313642082457</v>
+        <v>301.2314537561666</v>
       </c>
       <c r="G32" t="n">
         <v>412.872826975967</v>
       </c>
       <c r="H32" t="n">
-        <v>62.04479927304723</v>
+        <v>314.5894808065129</v>
       </c>
       <c r="I32" t="n">
-        <v>116.7967635091317</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,10 +24976,10 @@
         <v>251.1512600647031</v>
       </c>
       <c r="V32" t="n">
-        <v>105.3109029754583</v>
+        <v>75.2075769366692</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>96.69628718394731</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24998,22 +24998,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>140.1354988892706</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>136.0434004063341</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>99.67905345297832</v>
       </c>
       <c r="I33" t="n">
         <v>44.63384100281499</v>
@@ -25043,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>19.43654989674721</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>147.5340725715039</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>194.9243458019727</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.8558480838119</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>11.38435087887893</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25080,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06798188572784625</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.9010051432459</v>
       </c>
       <c r="H34" t="n">
         <v>152.5363108485471</v>
@@ -25098,7 +25098,7 @@
         <v>122.6719776188571</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>16.29800310112374</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>223.288426872372</v>
       </c>
       <c r="U34" t="n">
-        <v>33.71489468401356</v>
+        <v>286.2595762174793</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,10 +25140,10 @@
         <v>33.9783168031253</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>157.2340738672368</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,22 +25156,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>112.7282102375417</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>102.1383600872171</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>154.3313642082457</v>
       </c>
       <c r="G35" t="n">
-        <v>412.872826975967</v>
+        <v>160.3281454425013</v>
       </c>
       <c r="H35" t="n">
-        <v>205.7108431322486</v>
+        <v>314.5894808065129</v>
       </c>
       <c r="I35" t="n">
         <v>116.7967635091317</v>
@@ -25207,16 +25207,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.4589161789235</v>
       </c>
       <c r="U35" t="n">
         <v>251.1512600647031</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>75.2075769366692</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>280.4480963976911</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>117.7364393607715</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.0434004063341</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>99.67905345297832</v>
       </c>
       <c r="I36" t="n">
         <v>44.63384100281499</v>
@@ -25286,10 +25286,10 @@
         <v>147.5340725715039</v>
       </c>
       <c r="T36" t="n">
-        <v>194.9243458019727</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>202.7937933191405</v>
+        <v>225.8558480838119</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>45.24463193747381</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9010051432459</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>152.5363108485471</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>122.6719776188571</v>
       </c>
       <c r="J37" t="n">
         <v>16.29800310112374</v>
@@ -25362,25 +25362,25 @@
         <v>128.2841871185987</v>
       </c>
       <c r="S37" t="n">
-        <v>205.0213201227627</v>
+        <v>115.5209415899612</v>
       </c>
       <c r="T37" t="n">
         <v>223.288426872372</v>
       </c>
       <c r="U37" t="n">
-        <v>33.71489468401344</v>
+        <v>33.71489468401356</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>33.97831680312518</v>
+        <v>33.9783168031253</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>130.1891601300149</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>142.831536276331</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25402,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>154.3313642082458</v>
       </c>
       <c r="G38" t="n">
-        <v>412.872826975967</v>
+        <v>160.3281454425014</v>
       </c>
       <c r="H38" t="n">
-        <v>62.04479927304723</v>
+        <v>314.5894808065129</v>
       </c>
       <c r="I38" t="n">
-        <v>105.420902724616</v>
+        <v>116.7967635091317</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>153.6484831749546</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.4589161789235</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1512600647031</v>
       </c>
       <c r="V38" t="n">
-        <v>75.2075769366692</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>128.1940523876235</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25481,13 +25481,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.0434004063341</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>99.67905345297832</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>44.63384100281499</v>
@@ -25520,22 +25520,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>147.5340725715039</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>194.9243458019727</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.8558480838119</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>52.18245893621881</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>126.9112008649975</v>
       </c>
       <c r="G40" t="n">
-        <v>166.9010051432459</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>152.5363108485471</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>122.6719776188571</v>
@@ -25605,16 +25605,16 @@
         <v>223.288426872372</v>
       </c>
       <c r="U40" t="n">
-        <v>33.71489468401356</v>
+        <v>286.2595762174793</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>33.9783168031253</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>2.861261684722876</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>130.1891601300148</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>245.8044039464188</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>160.3281454425013</v>
+        <v>160.3281454425012</v>
       </c>
       <c r="H41" t="n">
-        <v>62.04479927304723</v>
+        <v>314.5894808065129</v>
       </c>
       <c r="I41" t="n">
-        <v>116.7967635091317</v>
+        <v>106.8143241933785</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>153.6484831749546</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>133.6932571225878</v>
       </c>
     </row>
     <row r="42">
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>141.731699279865</v>
+        <v>141.7316992798646</v>
       </c>
     </row>
     <row r="43">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>153.8440254152041</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.9010051432459</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>152.5363108485471</v>
       </c>
       <c r="I43" t="n">
         <v>122.6719776188571</v>
@@ -25836,22 +25836,22 @@
         <v>128.2841871185987</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>205.0213201227627</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>53.93123910933338</v>
+        <v>33.71489468401344</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>33.97831680312518</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.1891601300149</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>142.831536276331</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,7 +25876,7 @@
         <v>129.3856885387961</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>154.3313642082458</v>
       </c>
       <c r="G44" t="n">
         <v>412.872826975967</v>
@@ -25921,7 +25921,7 @@
         <v>212.4589161789235</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1512600647031</v>
+        <v>28.70990457002648</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25946,19 +25946,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>53.98953322867864</v>
+        <v>91.52895380564209</v>
       </c>
       <c r="H45" t="n">
         <v>99.67905345297832</v>
@@ -25994,19 +25994,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>147.5340725715039</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>194.9243458019727</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8558480838119</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.9010051432459</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>152.5363108485471</v>
@@ -26073,25 +26073,25 @@
         <v>128.2841871185987</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>205.0213201227627</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>223.288426872372</v>
       </c>
       <c r="U46" t="n">
-        <v>193.5957548856689</v>
+        <v>286.2595762174793</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>123.9028802426235</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>485153.5658931126</v>
+        <v>485153.5658931125</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>485153.5658931129</v>
+        <v>485153.5658931127</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>485153.5658931129</v>
+        <v>485153.5658931126</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>485153.5658931129</v>
+        <v>485153.5658931128</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>540258.7581064168</v>
+        <v>540258.7581064169</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>540258.7581064168</v>
+        <v>540258.7581064169</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>540258.7581064169</v>
+        <v>540258.758106417</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>540258.7581064169</v>
+        <v>540258.7581064168</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>540258.7581064168</v>
+        <v>540258.7581064169</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91381.29470172945</v>
+        <v>91381.29470172944</v>
       </c>
       <c r="C2" t="n">
         <v>91381.29470172945</v>
@@ -26328,19 +26328,19 @@
         <v>153375.3739746993</v>
       </c>
       <c r="G2" t="n">
-        <v>153375.3739746993</v>
+        <v>153375.3739746992</v>
       </c>
       <c r="H2" t="n">
-        <v>153375.3739746993</v>
+        <v>153375.3739746992</v>
       </c>
       <c r="I2" t="n">
-        <v>170501.5144400072</v>
+        <v>170501.5144400071</v>
       </c>
       <c r="J2" t="n">
         <v>170501.5144400071</v>
       </c>
       <c r="K2" t="n">
-        <v>170501.5144400071</v>
+        <v>170501.5144400072</v>
       </c>
       <c r="L2" t="n">
         <v>170501.5144400072</v>
@@ -26349,13 +26349,13 @@
         <v>170501.5144400072</v>
       </c>
       <c r="N2" t="n">
+        <v>170501.5144400071</v>
+      </c>
+      <c r="O2" t="n">
         <v>170501.5144400072</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>170501.5144400071</v>
-      </c>
-      <c r="P2" t="n">
-        <v>170501.5144400072</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>59421.5342424402</v>
+        <v>59421.53424244031</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>46732.12642419555</v>
+        <v>46732.12642419551</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,34 +26429,34 @@
         <v>7145.895421973698</v>
       </c>
       <c r="F4" t="n">
+        <v>7145.895421973699</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7145.895421973699</v>
+      </c>
+      <c r="H4" t="n">
         <v>7145.895421973701</v>
       </c>
-      <c r="G4" t="n">
-        <v>7145.895421973701</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7145.895421973702</v>
-      </c>
       <c r="I4" t="n">
-        <v>8914.207590806353</v>
+        <v>8914.207590806349</v>
       </c>
       <c r="J4" t="n">
-        <v>8914.207590806353</v>
+        <v>8914.207590806349</v>
       </c>
       <c r="K4" t="n">
-        <v>8914.207590806347</v>
+        <v>8914.207590806356</v>
       </c>
       <c r="L4" t="n">
         <v>8914.207590806353</v>
       </c>
       <c r="M4" t="n">
+        <v>8914.207590806353</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8914.207590806349</v>
+      </c>
+      <c r="O4" t="n">
         <v>8914.20759080636</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8914.207590806353</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8914.207590806353</v>
       </c>
       <c r="P4" t="n">
         <v>8914.207590806349</v>
@@ -26487,7 +26487,7 @@
         <v>23358.20041161357</v>
       </c>
       <c r="H5" t="n">
-        <v>23358.20041161358</v>
+        <v>23358.20041161356</v>
       </c>
       <c r="I5" t="n">
         <v>28531.51401350797</v>
@@ -26502,13 +26502,13 @@
         <v>28531.51401350797</v>
       </c>
       <c r="M5" t="n">
-        <v>28531.51401350798</v>
+        <v>28531.51401350797</v>
       </c>
       <c r="N5" t="n">
         <v>28531.51401350797</v>
       </c>
       <c r="O5" t="n">
-        <v>28531.51401350797</v>
+        <v>28531.51401350798</v>
       </c>
       <c r="P5" t="n">
         <v>28531.51401350797</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11150.68203402852</v>
+        <v>2484.924539002758</v>
       </c>
       <c r="C6" t="n">
-        <v>-11150.68203402852</v>
+        <v>2484.924539002772</v>
       </c>
       <c r="D6" t="n">
-        <v>-11150.68203402853</v>
+        <v>2484.924539002758</v>
       </c>
       <c r="E6" t="n">
-        <v>-385266.0959876495</v>
+        <v>-374912.5289055401</v>
       </c>
       <c r="F6" t="n">
-        <v>111367.3147165458</v>
+        <v>121720.8817986551</v>
       </c>
       <c r="G6" t="n">
-        <v>111367.3147165461</v>
+        <v>121720.8817986554</v>
       </c>
       <c r="H6" t="n">
-        <v>111367.3147165461</v>
+        <v>121720.8817986554</v>
       </c>
       <c r="I6" t="n">
-        <v>63137.71519605783</v>
+        <v>72584.60425353295</v>
       </c>
       <c r="J6" t="n">
-        <v>122559.2494384978</v>
+        <v>132006.1384959733</v>
       </c>
       <c r="K6" t="n">
-        <v>122559.2494384979</v>
+        <v>132006.1384959733</v>
       </c>
       <c r="L6" t="n">
-        <v>122559.2494384979</v>
+        <v>132006.1384959733</v>
       </c>
       <c r="M6" t="n">
-        <v>75827.12301430241</v>
+        <v>85274.01207177783</v>
       </c>
       <c r="N6" t="n">
-        <v>122559.249438498</v>
+        <v>132006.1384959733</v>
       </c>
       <c r="O6" t="n">
-        <v>122559.2494384979</v>
+        <v>132006.1384959734</v>
       </c>
       <c r="P6" t="n">
-        <v>122559.2494384979</v>
+        <v>132006.1384959733</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>548.4699409129046</v>
       </c>
       <c r="H3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="I3" t="n">
         <v>604.4402466180393</v>
@@ -26801,34 +26801,34 @@
         <v>187.5255871663196</v>
       </c>
       <c r="F4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G4" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="H4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I4" t="n">
-        <v>252.5446815334657</v>
+        <v>252.5446815334656</v>
       </c>
       <c r="J4" t="n">
-        <v>252.5446815334657</v>
+        <v>252.5446815334656</v>
       </c>
       <c r="K4" t="n">
-        <v>252.5446815334656</v>
+        <v>252.5446815334658</v>
       </c>
       <c r="L4" t="n">
         <v>252.5446815334657</v>
       </c>
       <c r="M4" t="n">
+        <v>252.5446815334657</v>
+      </c>
+      <c r="N4" t="n">
+        <v>252.5446815334656</v>
+      </c>
+      <c r="O4" t="n">
         <v>252.5446815334658</v>
-      </c>
-      <c r="N4" t="n">
-        <v>252.5446815334657</v>
-      </c>
-      <c r="O4" t="n">
-        <v>252.5446815334657</v>
       </c>
       <c r="P4" t="n">
         <v>252.5446815334656</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>55.97030570513471</v>
+        <v>55.97030570513482</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>65.0190943671457</v>
+        <v>65.01909436714578</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32463,31 +32463,31 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H20" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I20" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J20" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K20" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L20" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M20" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N20" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O20" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P20" t="n">
         <v>317.0679923244294</v>
@@ -32499,10 +32499,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S20" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T20" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U20" t="n">
         <v>0.1763923428061601</v>
@@ -32545,7 +32545,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H21" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I21" t="n">
         <v>40.6178210959085</v>
@@ -32554,7 +32554,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K21" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L21" t="n">
         <v>256.1509851405032</v>
@@ -32563,7 +32563,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N21" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O21" t="n">
         <v>280.6872536292673</v>
@@ -32572,19 +32572,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q21" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R21" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S21" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T21" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H22" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I22" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J22" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K22" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L22" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M22" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N22" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O22" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P22" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R22" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S22" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T22" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -35573,13 +35573,13 @@
         <v>92.63945645062394</v>
       </c>
       <c r="L13" t="n">
-        <v>174.6339172880151</v>
+        <v>164.9681526068342</v>
       </c>
       <c r="M13" t="n">
-        <v>170.306020310542</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N13" t="n">
-        <v>23.66518529520815</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="O13" t="n">
         <v>164.3820236732829</v>
@@ -35813,16 +35813,16 @@
         <v>174.6339172880152</v>
       </c>
       <c r="M16" t="n">
-        <v>187.52558716632</v>
+        <v>169.4872848053133</v>
       </c>
       <c r="N16" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O16" t="n">
-        <v>100.2010091933412</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>91.30185944855694</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764971</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,19 +36047,19 @@
         <v>92.63945645062401</v>
       </c>
       <c r="L19" t="n">
-        <v>174.6339172880152</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M19" t="n">
-        <v>187.5255871663199</v>
+        <v>168.9203199809852</v>
       </c>
       <c r="N19" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="O19" t="n">
-        <v>100.2010091933412</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K20" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L20" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M20" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N20" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O20" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P20" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q20" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L21" t="n">
         <v>117.596605360629</v>
@@ -36211,16 +36211,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N21" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O21" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P21" t="n">
-        <v>91.30185944855734</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>92.63945645062401</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>12.15921574646077</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M22" t="n">
-        <v>168.9203199809857</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N22" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O22" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P22" t="n">
-        <v>116.8989542469472</v>
+        <v>28.45844197068223</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>83.05431912357005</v>
+        <v>83.05431912356983</v>
       </c>
       <c r="K24" t="n">
         <v>72.09890592881416</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>104.3656942688473</v>
+        <v>81.21117765062422</v>
       </c>
       <c r="L25" t="n">
         <v>189.6394644929623</v>
@@ -36533,7 +36533,7 @@
         <v>178.6480288061262</v>
       </c>
       <c r="P25" t="n">
-        <v>105.9514695484147</v>
+        <v>129.1059861666376</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>25.18971509702354</v>
+        <v>25.18971509702314</v>
       </c>
       <c r="K26" t="n">
         <v>89.00388170171055</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>83.05431912357005</v>
+        <v>83.05431912356983</v>
       </c>
       <c r="K27" t="n">
         <v>72.09890592881416</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>104.3656942688473</v>
+        <v>81.21117765062422</v>
       </c>
       <c r="L28" t="n">
         <v>189.6394644929623</v>
@@ -36770,7 +36770,7 @@
         <v>178.6480288061262</v>
       </c>
       <c r="P28" t="n">
-        <v>105.9514695484147</v>
+        <v>129.1059861666376</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>155.153225052384</v>
+        <v>155.1532250523844</v>
       </c>
       <c r="L30" t="n">
         <v>143.7363221901828</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>81.21117765062422</v>
+        <v>76.10274366299519</v>
       </c>
       <c r="L31" t="n">
         <v>189.6394644929623</v>
@@ -37010,7 +37010,7 @@
         <v>129.1059861666376</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>5.108433987629539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>83.05431912357005</v>
       </c>
       <c r="K33" t="n">
         <v>72.09890592881416</v>
@@ -37162,7 +37162,7 @@
         <v>206.7969877676395</v>
       </c>
       <c r="O33" t="n">
-        <v>249.7889242856235</v>
+        <v>166.7346051620535</v>
       </c>
       <c r="P33" t="n">
         <v>114.2908704843131</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>76.10274366299495</v>
+        <v>104.3656942688473</v>
       </c>
       <c r="L34" t="n">
         <v>189.6394644929623</v>
@@ -37241,7 +37241,7 @@
         <v>210.9279538763017</v>
       </c>
       <c r="O34" t="n">
-        <v>178.6480288061262</v>
+        <v>150.3850782002739</v>
       </c>
       <c r="P34" t="n">
         <v>129.1059861666376</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>83.05431912357051</v>
+        <v>83.05431912357005</v>
       </c>
       <c r="K36" t="n">
         <v>72.09890592881416</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>76.10274366299542</v>
+        <v>76.10274366299495</v>
       </c>
       <c r="L37" t="n">
         <v>189.6394644929623</v>
@@ -37642,7 +37642,7 @@
         <v>114.2908704843131</v>
       </c>
       <c r="Q39" t="n">
-        <v>109.031308599543</v>
+        <v>109.0313085995428</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37718,10 +37718,10 @@
         <v>178.6480288061262</v>
       </c>
       <c r="P40" t="n">
-        <v>105.9514695484147</v>
+        <v>100.843035560785</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.108433987629539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>83.05431912357005</v>
+        <v>83.05431912357051</v>
       </c>
       <c r="K42" t="n">
         <v>72.09890592881416</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>81.21117765062445</v>
+        <v>76.10274366299542</v>
       </c>
       <c r="L43" t="n">
         <v>189.6394644929623</v>
@@ -37958,7 +37958,7 @@
         <v>129.1059861666376</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>5.108433987629539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38177,13 +38177,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>76.10274366299473</v>
+        <v>104.3656942688473</v>
       </c>
       <c r="L46" t="n">
         <v>189.6394644929623</v>
       </c>
       <c r="M46" t="n">
-        <v>210.442289624707</v>
+        <v>182.1793390188544</v>
       </c>
       <c r="N46" t="n">
         <v>210.9279538763017</v>
